--- a/reports/results_excel.xlsx
+++ b/reports/results_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365umedumy-my.sharepoint.com/personal/wqd180065_siswa365_um_edu_my/Documents/news_trader/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365umedumy-my.sharepoint.com/personal/wqd180065_siswa365_um_edu_my/Documents/news/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{50252D53-0CBF-4CAD-8EE0-8AAC95A8C42F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA6A1AF4-3394-4E94-8739-AA639082D5A7}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{50252D53-0CBF-4CAD-8EE0-8AAC95A8C42F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1B6738A-04B0-4537-9482-A83844D97854}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="5080" windowWidth="32650" windowHeight="14930" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="marketcap" sheetId="1" r:id="rId1"/>
@@ -26,30 +26,30 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Returns!$L$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Returns!$L$4:$L$13</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Returns!$Q$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Returns!$Q$4:$Q$13</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Returns!$C$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Returns!$C$4:$C$13</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Returns!$D$3</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Returns!$D$4:$D$13</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Returns!$E$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Returns!$E$4:$E$13</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Returns!$F$3</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Returns!$F$4:$F$13</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Returns!$M$3</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Returns!$G$3</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Returns!$G$4:$G$13</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Returns!$H$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Returns!$H$4:$H$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Returns!$M$4:$M$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Returns!$N$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Returns!$N$4:$N$13</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Returns!$O$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Returns!$O$4:$O$13</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Returns!$P$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Returns!$P$4:$P$13</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Returns!$C$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Returns!$C$4:$C$13</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Returns!$H$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Returns!$H$4:$H$13</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Returns!$L$3</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Returns!$L$4:$L$13</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Returns!$M$3</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Returns!$M$4:$M$13</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Returns!$N$3</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Returns!$N$4:$N$13</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Returns!$O$3</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Returns!$O$4:$O$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Returns!$D$3</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Returns!$P$3</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Returns!$P$4:$P$13</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Returns!$Q$3</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Returns!$Q$4:$Q$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Returns!$D$4:$D$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Returns!$E$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Returns!$E$4:$E$13</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Returns!$F$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Returns!$F$4:$F$13</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Returns!$G$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Returns!$G$4:$G$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="412">
   <si>
     <t>RIC</t>
   </si>
@@ -1173,15 +1173,6 @@
   </si>
   <si>
     <t>Predicted (Sentiment)</t>
-  </si>
-  <si>
-    <t>POSITIVE</t>
-  </si>
-  <si>
-    <t>NEUTRAL</t>
-  </si>
-  <si>
-    <t>NEGATIVE</t>
   </si>
   <si>
     <t>Accuracy Baseline</t>
@@ -2743,7 +2734,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3091,15 +3082,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8786,8 +8768,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1701654117855152"/>
-          <c:y val="1.6739693429685287E-2"/>
+          <c:x val="0.17330444052648711"/>
+          <c:y val="9.2696370639610542E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10002,32 +9984,32 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10065,7 +10047,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EF49D48A-6690-4E79-BEB8-6F3FD1670D05}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v> RD00 </cx:v>
             </cx:txData>
           </cx:tx>
@@ -10077,7 +10059,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1D0914E7-6D12-4964-AD09-52618FBE35B1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v> RD01 </cx:v>
             </cx:txData>
           </cx:tx>
@@ -10089,7 +10071,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EDC4DB60-6D0E-479E-9BF3-0A164420F8E4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v> RD02 </cx:v>
             </cx:txData>
           </cx:tx>
@@ -10101,7 +10083,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DD7AE9DB-D5BD-4E48-9D8C-38D2FCB3DD77}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v> RD03 </cx:v>
             </cx:txData>
           </cx:tx>
@@ -10113,7 +10095,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{84286502-145A-4548-A4DC-B85CCA134CFA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v> RD04 </cx:v>
             </cx:txData>
           </cx:tx>
@@ -10125,7 +10107,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{138AF9A9-5D6F-4D4D-AFE8-4AA81D20B6B6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v> RD05 </cx:v>
             </cx:txData>
           </cx:tx>
@@ -10184,32 +10166,32 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10247,7 +10229,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8F3F0972-EE6E-4A5B-80EA-60DB2C8AE021}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v> RD00 </cx:v>
             </cx:txData>
           </cx:tx>
@@ -10259,7 +10241,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{371CB96A-EA59-4852-A237-9ADC1896A067}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v> RD01 </cx:v>
             </cx:txData>
           </cx:tx>
@@ -10271,7 +10253,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A3515349-FA40-4574-8296-FDA21CB3F442}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v> RD02 </cx:v>
             </cx:txData>
           </cx:tx>
@@ -10283,7 +10265,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{630D6A7C-7D7D-43EB-B0BC-4DE3AA6AE673}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v> RD03 </cx:v>
             </cx:txData>
           </cx:tx>
@@ -10295,7 +10277,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3AF46ECF-3019-42F3-A32C-1540F5265D4E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v> RD04 </cx:v>
             </cx:txData>
           </cx:tx>
@@ -10307,7 +10289,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A4ACBD7A-E815-4612-A309-F7E4FA0872B2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v> RD05 </cx:v>
             </cx:txData>
           </cx:tx>
@@ -16075,8 +16057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18668,17 +18650,17 @@
       <c r="L47">
         <v>8.5299999999999994</v>
       </c>
-      <c r="Y47" s="260" t="s">
+      <c r="Y47" s="257" t="s">
         <v>315</v>
       </c>
-      <c r="Z47" s="260"/>
-      <c r="AA47" s="260" t="s">
+      <c r="Z47" s="257"/>
+      <c r="AA47" s="257" t="s">
         <v>316</v>
       </c>
-      <c r="AB47" s="260"/>
-      <c r="AC47" s="260"/>
-      <c r="AD47" s="260"/>
-      <c r="AE47" s="260"/>
+      <c r="AB47" s="257"/>
+      <c r="AC47" s="257"/>
+      <c r="AD47" s="257"/>
+      <c r="AE47" s="257"/>
     </row>
     <row r="48" spans="5:32" ht="29" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
@@ -18733,13 +18715,13 @@
       <c r="Z48" s="91" t="s">
         <v>317</v>
       </c>
-      <c r="AA48" s="260" t="s">
+      <c r="AA48" s="257" t="s">
         <v>317</v>
       </c>
-      <c r="AB48" s="260"/>
-      <c r="AC48" s="260"/>
-      <c r="AD48" s="260"/>
-      <c r="AE48" s="260"/>
+      <c r="AB48" s="257"/>
+      <c r="AC48" s="257"/>
+      <c r="AD48" s="257"/>
+      <c r="AE48" s="257"/>
       <c r="AF48" s="1"/>
     </row>
     <row r="49" spans="5:32" x14ac:dyDescent="0.35">
@@ -19364,13 +19346,13 @@
       <c r="Z58" s="102" t="s">
         <v>318</v>
       </c>
-      <c r="AA58" s="261" t="s">
+      <c r="AA58" s="258" t="s">
         <v>319</v>
       </c>
-      <c r="AB58" s="261"/>
-      <c r="AC58" s="261"/>
-      <c r="AD58" s="261"/>
-      <c r="AE58" s="261"/>
+      <c r="AB58" s="258"/>
+      <c r="AC58" s="258"/>
+      <c r="AD58" s="258"/>
+      <c r="AE58" s="258"/>
     </row>
     <row r="59" spans="5:32" x14ac:dyDescent="0.35">
       <c r="E59" s="82">
@@ -19993,8 +19975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AD355B-0BCC-4373-9FC5-E213F1740F6F}">
   <dimension ref="D5:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20008,44 +19990,44 @@
     <row r="5" spans="4:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D5" s="128"/>
       <c r="E5" s="129"/>
-      <c r="F5" s="262" t="s">
+      <c r="F5" s="259" t="s">
         <v>341</v>
       </c>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
     </row>
     <row r="6" spans="4:8" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D6" s="128"/>
       <c r="E6" s="128"/>
       <c r="F6" s="122" t="s">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="G6" s="122" t="s">
-        <v>343</v>
+        <v>72</v>
       </c>
       <c r="H6" s="122" t="s">
-        <v>342</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="4:8" s="19" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="263" t="s">
+      <c r="D7" s="260" t="s">
         <v>340</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="135" t="s">
+      <c r="F7" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="133" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="4:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="264"/>
+      <c r="D8" s="261"/>
       <c r="E8" s="25" t="s">
         <v>72</v>
       </c>
@@ -20055,12 +20037,12 @@
       <c r="G8" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="137" t="s">
+      <c r="H8" s="134" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="4:8" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="265"/>
+      <c r="D9" s="262"/>
       <c r="E9" s="25" t="s">
         <v>71</v>
       </c>
@@ -20070,76 +20052,76 @@
       <c r="G9" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="138" t="s">
+      <c r="H9" s="135" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D12" s="128"/>
       <c r="E12" s="129"/>
-      <c r="F12" s="262" t="s">
+      <c r="F12" s="259" t="s">
         <v>341</v>
       </c>
-      <c r="G12" s="262"/>
-      <c r="H12" s="262"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="259"/>
     </row>
     <row r="13" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D13" s="128"/>
       <c r="E13" s="128"/>
-      <c r="F13" s="130" t="s">
-        <v>344</v>
-      </c>
-      <c r="G13" s="131" t="s">
-        <v>343</v>
-      </c>
-      <c r="H13" s="132" t="s">
-        <v>342</v>
+      <c r="F13" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="122" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="263" t="s">
+      <c r="D14" s="260" t="s">
         <v>340</v>
       </c>
-      <c r="E14" s="134" t="s">
+      <c r="E14" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="152" t="s">
+      <c r="F14" s="149" t="s">
         <v>74</v>
       </c>
       <c r="G14" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="153" t="s">
+      <c r="H14" s="150" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="264"/>
-      <c r="E15" s="134" t="s">
+      <c r="D15" s="261"/>
+      <c r="E15" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="154" t="s">
+      <c r="F15" s="151" t="s">
         <v>80</v>
       </c>
       <c r="G15" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="153" t="s">
+      <c r="H15" s="150" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D16" s="265"/>
-      <c r="E16" s="134" t="s">
+      <c r="D16" s="262"/>
+      <c r="E16" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="155" t="s">
+      <c r="F16" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="156" t="s">
+      <c r="G16" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="157" t="s">
+      <c r="H16" s="154" t="s">
         <v>79</v>
       </c>
     </row>
@@ -20159,7 +20141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA5B013-0238-48AE-AB4F-E6F08789E8BB}">
   <dimension ref="B2:R67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
@@ -20167,1169 +20149,1169 @@
   <cols>
     <col min="1" max="1" width="8.7265625" style="34"/>
     <col min="2" max="2" width="17" style="34" customWidth="1"/>
-    <col min="3" max="4" width="6.453125" style="169" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" style="169" customWidth="1"/>
-    <col min="6" max="8" width="6.453125" style="169" customWidth="1"/>
+    <col min="3" max="4" width="6.453125" style="166" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" style="166" customWidth="1"/>
+    <col min="6" max="8" width="6.453125" style="166" customWidth="1"/>
     <col min="9" max="9" width="12" style="34" customWidth="1"/>
     <col min="10" max="10" width="1.90625" style="34" customWidth="1"/>
     <col min="11" max="11" width="17" style="34" customWidth="1"/>
-    <col min="12" max="13" width="6.453125" style="169" customWidth="1"/>
-    <col min="14" max="14" width="7.36328125" style="169" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="6.453125" style="169" customWidth="1"/>
-    <col min="18" max="18" width="12" style="139" customWidth="1"/>
+    <col min="12" max="13" width="6.453125" style="166" customWidth="1"/>
+    <col min="14" max="14" width="7.36328125" style="166" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="6.453125" style="166" customWidth="1"/>
+    <col min="18" max="18" width="12" style="136" customWidth="1"/>
     <col min="19" max="16384" width="8.7265625" style="34"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B2" s="145"/>
+      <c r="B2" s="142"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B3" s="145"/>
-      <c r="C3" s="170" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="167" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="170" t="s">
+      <c r="D3" s="167" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="170" t="s">
+      <c r="E3" s="167" t="s">
         <v>334</v>
       </c>
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="167" t="s">
         <v>335</v>
       </c>
-      <c r="G3" s="170" t="s">
+      <c r="G3" s="167" t="s">
         <v>336</v>
       </c>
-      <c r="H3" s="170" t="s">
+      <c r="H3" s="167" t="s">
         <v>337</v>
       </c>
-      <c r="K3" s="145"/>
-      <c r="L3" s="170" t="s">
+      <c r="K3" s="142"/>
+      <c r="L3" s="167" t="s">
         <v>332</v>
       </c>
-      <c r="M3" s="170" t="s">
+      <c r="M3" s="167" t="s">
         <v>333</v>
       </c>
-      <c r="N3" s="170" t="s">
+      <c r="N3" s="167" t="s">
         <v>334</v>
       </c>
-      <c r="O3" s="170" t="s">
+      <c r="O3" s="167" t="s">
         <v>335</v>
       </c>
-      <c r="P3" s="170" t="s">
+      <c r="P3" s="167" t="s">
         <v>336</v>
       </c>
-      <c r="Q3" s="170" t="s">
+      <c r="Q3" s="167" t="s">
         <v>337</v>
       </c>
-      <c r="R3" s="146"/>
+      <c r="R3" s="143"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="171">
+      <c r="C4" s="168">
         <v>0.02</v>
       </c>
-      <c r="D4" s="171">
+      <c r="D4" s="168">
         <v>0.03</v>
       </c>
-      <c r="E4" s="171">
+      <c r="E4" s="168">
         <v>0.05</v>
       </c>
-      <c r="F4" s="171">
+      <c r="F4" s="168">
         <v>0.06</v>
       </c>
-      <c r="G4" s="171">
+      <c r="G4" s="168">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H4" s="171">
+      <c r="H4" s="168">
         <v>0.08</v>
       </c>
-      <c r="K4" s="145" t="s">
+      <c r="K4" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="171">
+      <c r="L4" s="168">
         <v>0.08</v>
       </c>
-      <c r="M4" s="171">
+      <c r="M4" s="168">
         <v>0.08</v>
       </c>
-      <c r="N4" s="171">
+      <c r="N4" s="168">
         <v>0.09</v>
       </c>
-      <c r="O4" s="171">
+      <c r="O4" s="168">
         <v>0.09</v>
       </c>
-      <c r="P4" s="171">
+      <c r="P4" s="168">
         <v>0.09</v>
       </c>
-      <c r="Q4" s="171">
+      <c r="Q4" s="168">
         <v>0.1</v>
       </c>
-      <c r="R4" s="147"/>
+      <c r="R4" s="144"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="171">
+      <c r="C5" s="168">
         <v>0.03</v>
       </c>
-      <c r="D5" s="171">
+      <c r="D5" s="168">
         <v>0.06</v>
       </c>
-      <c r="E5" s="171">
+      <c r="E5" s="168">
         <v>0.08</v>
       </c>
-      <c r="F5" s="171">
+      <c r="F5" s="168">
         <v>0.11</v>
       </c>
-      <c r="G5" s="171">
+      <c r="G5" s="168">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H5" s="171">
+      <c r="H5" s="168">
         <v>0.16</v>
       </c>
-      <c r="K5" s="145" t="s">
+      <c r="K5" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="171">
+      <c r="L5" s="168">
         <v>-0.01</v>
       </c>
-      <c r="M5" s="171">
+      <c r="M5" s="168">
         <v>0.02</v>
       </c>
-      <c r="N5" s="171">
+      <c r="N5" s="168">
         <v>0.06</v>
       </c>
-      <c r="O5" s="171">
+      <c r="O5" s="168">
         <v>0.09</v>
       </c>
-      <c r="P5" s="171">
+      <c r="P5" s="168">
         <v>0.13</v>
       </c>
-      <c r="Q5" s="171">
+      <c r="Q5" s="168">
         <v>0.16</v>
       </c>
-      <c r="R5" s="147"/>
+      <c r="R5" s="144"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="171">
+      <c r="C6" s="168">
         <v>-0.01</v>
       </c>
-      <c r="D6" s="171">
+      <c r="D6" s="168">
         <v>-0.01</v>
       </c>
-      <c r="E6" s="171">
+      <c r="E6" s="168">
         <v>0</v>
       </c>
-      <c r="F6" s="171">
+      <c r="F6" s="168">
         <v>-0.01</v>
       </c>
-      <c r="G6" s="171">
+      <c r="G6" s="168">
         <v>0</v>
       </c>
-      <c r="H6" s="171">
+      <c r="H6" s="168">
         <v>0</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="171">
+      <c r="L6" s="168">
         <v>0.1</v>
       </c>
-      <c r="M6" s="171">
+      <c r="M6" s="168">
         <v>0.12</v>
       </c>
-      <c r="N6" s="171">
+      <c r="N6" s="168">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O6" s="171">
+      <c r="O6" s="168">
         <v>0.16</v>
       </c>
-      <c r="P6" s="171">
+      <c r="P6" s="168">
         <v>0.18</v>
       </c>
-      <c r="Q6" s="171">
+      <c r="Q6" s="168">
         <v>0.21</v>
       </c>
-      <c r="R6" s="147"/>
+      <c r="R6" s="144"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="171">
+      <c r="C7" s="168">
         <v>0.11</v>
       </c>
-      <c r="D7" s="171">
+      <c r="D7" s="168">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E7" s="171">
+      <c r="E7" s="168">
         <v>0.18</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="168">
         <v>0.22</v>
       </c>
-      <c r="G7" s="171">
+      <c r="G7" s="168">
         <v>0.26</v>
       </c>
-      <c r="H7" s="171">
+      <c r="H7" s="168">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K7" s="145" t="s">
+      <c r="K7" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="171">
+      <c r="L7" s="168">
         <v>0.04</v>
       </c>
-      <c r="M7" s="171">
+      <c r="M7" s="168">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N7" s="171">
+      <c r="N7" s="168">
         <v>0.09</v>
       </c>
-      <c r="O7" s="171">
+      <c r="O7" s="168">
         <v>0.12</v>
       </c>
-      <c r="P7" s="171">
+      <c r="P7" s="168">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q7" s="171">
+      <c r="Q7" s="168">
         <v>0.17</v>
       </c>
-      <c r="R7" s="147"/>
+      <c r="R7" s="144"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="171">
+      <c r="C8" s="168">
         <v>0.01</v>
       </c>
-      <c r="D8" s="171">
+      <c r="D8" s="168">
         <v>0.03</v>
       </c>
-      <c r="E8" s="171">
+      <c r="E8" s="168">
         <v>0.05</v>
       </c>
-      <c r="F8" s="171">
+      <c r="F8" s="168">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G8" s="171">
+      <c r="G8" s="168">
         <v>0.08</v>
       </c>
-      <c r="H8" s="171">
+      <c r="H8" s="168">
         <v>0.1</v>
       </c>
-      <c r="K8" s="145" t="s">
+      <c r="K8" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="171">
+      <c r="L8" s="168">
         <v>0.03</v>
       </c>
-      <c r="M8" s="171">
+      <c r="M8" s="168">
         <v>-0.01</v>
       </c>
-      <c r="N8" s="171">
+      <c r="N8" s="168">
         <v>-0.04</v>
       </c>
-      <c r="O8" s="171">
+      <c r="O8" s="168">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="P8" s="171">
+      <c r="P8" s="168">
         <v>-0.11</v>
       </c>
-      <c r="Q8" s="171">
+      <c r="Q8" s="168">
         <v>-0.15</v>
       </c>
-      <c r="R8" s="147"/>
+      <c r="R8" s="144"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="171">
+      <c r="C9" s="168">
         <v>0.09</v>
       </c>
-      <c r="D9" s="171">
+      <c r="D9" s="168">
         <v>0.13</v>
       </c>
-      <c r="E9" s="171">
+      <c r="E9" s="168">
         <v>0.18</v>
       </c>
-      <c r="F9" s="171">
+      <c r="F9" s="168">
         <v>0.22</v>
       </c>
-      <c r="G9" s="171">
+      <c r="G9" s="168">
         <v>0.25</v>
       </c>
-      <c r="H9" s="171">
+      <c r="H9" s="168">
         <v>0.3</v>
       </c>
-      <c r="K9" s="145" t="s">
+      <c r="K9" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="171">
+      <c r="L9" s="168">
         <v>0.25</v>
       </c>
-      <c r="M9" s="171">
+      <c r="M9" s="168">
         <v>0.36</v>
       </c>
-      <c r="N9" s="171">
+      <c r="N9" s="168">
         <v>0.45</v>
       </c>
-      <c r="O9" s="171">
+      <c r="O9" s="168">
         <v>0.54</v>
       </c>
-      <c r="P9" s="171">
+      <c r="P9" s="168">
         <v>0.64</v>
       </c>
-      <c r="Q9" s="171">
+      <c r="Q9" s="168">
         <v>0.74</v>
       </c>
-      <c r="R9" s="147"/>
+      <c r="R9" s="144"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="171">
+      <c r="C10" s="168">
         <v>0.02</v>
       </c>
-      <c r="D10" s="171">
+      <c r="D10" s="168">
         <v>0.02</v>
       </c>
-      <c r="E10" s="171">
+      <c r="E10" s="168">
         <v>0.02</v>
       </c>
-      <c r="F10" s="171">
+      <c r="F10" s="168">
         <v>0.02</v>
       </c>
-      <c r="G10" s="171">
+      <c r="G10" s="168">
         <v>0.01</v>
       </c>
-      <c r="H10" s="171">
+      <c r="H10" s="168">
         <v>0.01</v>
       </c>
-      <c r="K10" s="145" t="s">
+      <c r="K10" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="171">
+      <c r="L10" s="168">
         <v>0.08</v>
       </c>
-      <c r="M10" s="171">
+      <c r="M10" s="168">
         <v>0.09</v>
       </c>
-      <c r="N10" s="171">
+      <c r="N10" s="168">
         <v>0.11</v>
       </c>
-      <c r="O10" s="171">
+      <c r="O10" s="168">
         <v>0.12</v>
       </c>
-      <c r="P10" s="171">
+      <c r="P10" s="168">
         <v>0.13</v>
       </c>
-      <c r="Q10" s="171">
+      <c r="Q10" s="168">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R10" s="147"/>
+      <c r="R10" s="144"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="171">
+      <c r="C11" s="168">
         <v>0.02</v>
       </c>
-      <c r="D11" s="171">
+      <c r="D11" s="168">
         <v>0.09</v>
       </c>
-      <c r="E11" s="171">
+      <c r="E11" s="168">
         <v>0.16</v>
       </c>
-      <c r="F11" s="171">
+      <c r="F11" s="168">
         <v>0.23</v>
       </c>
-      <c r="G11" s="171">
+      <c r="G11" s="168">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H11" s="171">
+      <c r="H11" s="168">
         <v>0.36</v>
       </c>
-      <c r="K11" s="145" t="s">
+      <c r="K11" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="171">
+      <c r="L11" s="168">
         <v>0.08</v>
       </c>
-      <c r="M11" s="171">
+      <c r="M11" s="168">
         <v>0.15</v>
       </c>
-      <c r="N11" s="171">
+      <c r="N11" s="168">
         <v>0.22</v>
       </c>
-      <c r="O11" s="171">
+      <c r="O11" s="168">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P11" s="171">
+      <c r="P11" s="168">
         <v>0.36</v>
       </c>
-      <c r="Q11" s="171">
+      <c r="Q11" s="168">
         <v>0.43</v>
       </c>
-      <c r="R11" s="147"/>
+      <c r="R11" s="144"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="171">
+      <c r="C12" s="168">
         <v>0.04</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="168">
         <v>0.09</v>
       </c>
-      <c r="E12" s="171">
+      <c r="E12" s="168">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F12" s="171">
+      <c r="F12" s="168">
         <v>0.19</v>
       </c>
-      <c r="G12" s="171">
+      <c r="G12" s="168">
         <v>0.24</v>
       </c>
-      <c r="H12" s="171">
+      <c r="H12" s="168">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K12" s="145" t="s">
+      <c r="K12" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="171">
+      <c r="L12" s="168">
         <v>0.04</v>
       </c>
-      <c r="M12" s="171">
+      <c r="M12" s="168">
         <v>0.02</v>
       </c>
-      <c r="N12" s="171">
+      <c r="N12" s="168">
         <v>0.02</v>
       </c>
-      <c r="O12" s="171">
+      <c r="O12" s="168">
         <v>0.01</v>
       </c>
-      <c r="P12" s="171">
+      <c r="P12" s="168">
         <v>0.01</v>
       </c>
-      <c r="Q12" s="171">
+      <c r="Q12" s="168">
         <v>0</v>
       </c>
-      <c r="R12" s="147"/>
+      <c r="R12" s="144"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="171">
+      <c r="C13" s="168">
         <v>-0.09</v>
       </c>
-      <c r="D13" s="171">
+      <c r="D13" s="168">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E13" s="171">
+      <c r="E13" s="168">
         <v>-0.03</v>
       </c>
-      <c r="F13" s="171">
+      <c r="F13" s="168">
         <v>0.01</v>
       </c>
-      <c r="G13" s="171">
+      <c r="G13" s="168">
         <v>0.04</v>
       </c>
-      <c r="H13" s="171">
+      <c r="H13" s="168">
         <v>0.08</v>
       </c>
-      <c r="K13" s="145" t="s">
+      <c r="K13" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="171">
+      <c r="L13" s="168">
         <v>-0.06</v>
       </c>
-      <c r="M13" s="171">
+      <c r="M13" s="168">
         <v>-0.12</v>
       </c>
-      <c r="N13" s="171">
+      <c r="N13" s="168">
         <v>-0.18</v>
       </c>
-      <c r="O13" s="171">
+      <c r="O13" s="168">
         <v>-0.24</v>
       </c>
-      <c r="P13" s="171">
+      <c r="P13" s="168">
         <v>-0.3</v>
       </c>
-      <c r="Q13" s="171">
+      <c r="Q13" s="168">
         <v>-0.36</v>
       </c>
-      <c r="R13" s="147"/>
+      <c r="R13" s="144"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="142" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="170">
+      <c r="C14" s="167">
         <v>0.04</v>
       </c>
-      <c r="D14" s="170">
+      <c r="D14" s="167">
         <v>0.06</v>
       </c>
-      <c r="E14" s="170">
+      <c r="E14" s="167">
         <v>0.08</v>
       </c>
-      <c r="F14" s="170">
+      <c r="F14" s="167">
         <v>0.11</v>
       </c>
-      <c r="G14" s="170">
+      <c r="G14" s="167">
         <v>0.13</v>
       </c>
-      <c r="H14" s="170">
+      <c r="H14" s="167">
         <v>0.15</v>
       </c>
-      <c r="K14" s="145" t="s">
+      <c r="K14" s="142" t="s">
         <v>339</v>
       </c>
-      <c r="L14" s="170">
+      <c r="L14" s="167">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M14" s="170">
+      <c r="M14" s="167">
         <v>0.08</v>
       </c>
-      <c r="N14" s="170">
+      <c r="N14" s="167">
         <v>0.09</v>
       </c>
-      <c r="O14" s="170">
+      <c r="O14" s="167">
         <v>0.1</v>
       </c>
-      <c r="P14" s="170">
+      <c r="P14" s="167">
         <v>0.11</v>
       </c>
-      <c r="Q14" s="170">
+      <c r="Q14" s="167">
         <v>0.12</v>
       </c>
-      <c r="R14" s="146"/>
+      <c r="R14" s="143"/>
     </row>
     <row r="36" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="210" t="s">
-        <v>376</v>
-      </c>
-      <c r="K36" s="210" t="s">
-        <v>377</v>
+      <c r="B36" s="207" t="s">
+        <v>373</v>
+      </c>
+      <c r="K36" s="207" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" s="87"/>
       <c r="K37" s="87"/>
     </row>
-    <row r="38" spans="2:18" s="151" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="165" t="s">
+    <row r="38" spans="2:18" s="148" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="162" t="s">
         <v>297</v>
       </c>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="169" t="s">
         <v>332</v>
       </c>
-      <c r="D38" s="172" t="s">
+      <c r="D38" s="169" t="s">
         <v>333</v>
       </c>
-      <c r="E38" s="172" t="s">
+      <c r="E38" s="169" t="s">
         <v>334</v>
       </c>
-      <c r="F38" s="172" t="s">
+      <c r="F38" s="169" t="s">
         <v>335</v>
       </c>
-      <c r="G38" s="172" t="s">
+      <c r="G38" s="169" t="s">
         <v>336</v>
       </c>
-      <c r="H38" s="173" t="s">
+      <c r="H38" s="170" t="s">
         <v>337</v>
       </c>
-      <c r="I38" s="159" t="s">
-        <v>346</v>
-      </c>
-      <c r="K38" s="165" t="s">
+      <c r="I38" s="156" t="s">
+        <v>343</v>
+      </c>
+      <c r="K38" s="162" t="s">
         <v>297</v>
       </c>
-      <c r="L38" s="190" t="s">
+      <c r="L38" s="187" t="s">
         <v>332</v>
       </c>
-      <c r="M38" s="191" t="s">
+      <c r="M38" s="188" t="s">
         <v>333</v>
       </c>
-      <c r="N38" s="191" t="s">
+      <c r="N38" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="O38" s="191" t="s">
+      <c r="O38" s="188" t="s">
         <v>335</v>
       </c>
-      <c r="P38" s="191" t="s">
+      <c r="P38" s="188" t="s">
         <v>336</v>
       </c>
-      <c r="Q38" s="192" t="s">
+      <c r="Q38" s="189" t="s">
         <v>337</v>
       </c>
-      <c r="R38" s="159" t="s">
-        <v>346</v>
+      <c r="R38" s="156" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B39" s="141" t="s">
+      <c r="B39" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="174">
+      <c r="C39" s="171">
         <v>24.82</v>
       </c>
-      <c r="D39" s="175">
+      <c r="D39" s="172">
         <v>30.42</v>
       </c>
-      <c r="E39" s="175">
+      <c r="E39" s="172">
         <v>33.29</v>
       </c>
-      <c r="F39" s="175">
+      <c r="F39" s="172">
         <v>35.11</v>
       </c>
-      <c r="G39" s="175">
+      <c r="G39" s="172">
         <v>36.020000000000003</v>
       </c>
-      <c r="H39" s="176">
+      <c r="H39" s="173">
         <v>36.93</v>
       </c>
-      <c r="I39" s="166">
+      <c r="I39" s="163">
         <f>AVERAGE(C39:H39)</f>
         <v>32.765000000000001</v>
       </c>
-      <c r="K39" s="140" t="s">
+      <c r="K39" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="L39" s="174">
+      <c r="L39" s="171">
         <v>29.31</v>
       </c>
-      <c r="M39" s="175">
+      <c r="M39" s="172">
         <v>34.729999999999997</v>
       </c>
-      <c r="N39" s="209">
+      <c r="N39" s="206">
         <v>37.15</v>
       </c>
-      <c r="O39" s="175">
+      <c r="O39" s="172">
         <v>38.76</v>
       </c>
-      <c r="P39" s="175">
+      <c r="P39" s="172">
         <v>39.57</v>
       </c>
-      <c r="Q39" s="176">
+      <c r="Q39" s="173">
         <v>40.36</v>
       </c>
-      <c r="R39" s="148">
+      <c r="R39" s="145">
         <f>AVERAGE(L39:Q39)</f>
         <v>36.646666666666668</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B40" s="141" t="s">
+      <c r="B40" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="177">
+      <c r="C40" s="174">
         <v>49.88</v>
       </c>
-      <c r="D40" s="178">
+      <c r="D40" s="175">
         <v>38.42</v>
       </c>
-      <c r="E40" s="179">
+      <c r="E40" s="176">
         <v>32.31</v>
       </c>
-      <c r="F40" s="179">
+      <c r="F40" s="176">
         <v>27.93</v>
       </c>
-      <c r="G40" s="179">
+      <c r="G40" s="176">
         <v>25.46</v>
       </c>
-      <c r="H40" s="180">
+      <c r="H40" s="177">
         <v>22.93</v>
       </c>
-      <c r="I40" s="167">
+      <c r="I40" s="164">
         <f t="shared" ref="I40:I41" si="0">AVERAGE(C40:H40)</f>
         <v>32.821666666666673</v>
       </c>
-      <c r="K40" s="142" t="s">
+      <c r="K40" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="L40" s="177">
+      <c r="L40" s="174">
         <v>40.53</v>
       </c>
-      <c r="M40" s="179">
+      <c r="M40" s="176">
         <v>30.43</v>
       </c>
-      <c r="N40" s="179">
+      <c r="N40" s="176">
         <v>25.73</v>
       </c>
-      <c r="O40" s="179">
+      <c r="O40" s="176">
         <v>22.39</v>
       </c>
-      <c r="P40" s="179">
+      <c r="P40" s="176">
         <v>20.420000000000002</v>
       </c>
-      <c r="Q40" s="180">
+      <c r="Q40" s="177">
         <v>18.57</v>
       </c>
-      <c r="R40" s="149">
+      <c r="R40" s="146">
         <f t="shared" ref="R40:R41" si="1">AVERAGE(L40:Q40)</f>
         <v>26.344999999999999</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B41" s="143" t="s">
+      <c r="B41" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="181">
+      <c r="C41" s="178">
         <v>25.3</v>
       </c>
-      <c r="D41" s="179">
+      <c r="D41" s="176">
         <v>31.16</v>
       </c>
-      <c r="E41" s="178">
+      <c r="E41" s="175">
         <v>34.4</v>
       </c>
-      <c r="F41" s="178">
+      <c r="F41" s="175">
         <v>36.97</v>
       </c>
-      <c r="G41" s="178">
+      <c r="G41" s="175">
         <v>38.520000000000003</v>
       </c>
-      <c r="H41" s="182">
+      <c r="H41" s="179">
         <v>40.14</v>
       </c>
-      <c r="I41" s="168">
+      <c r="I41" s="165">
         <f t="shared" si="0"/>
         <v>34.414999999999999</v>
       </c>
-      <c r="K41" s="144" t="s">
+      <c r="K41" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="L41" s="193">
+      <c r="L41" s="190">
         <v>30.17</v>
       </c>
-      <c r="M41" s="194">
+      <c r="M41" s="191">
         <v>34.840000000000003</v>
       </c>
-      <c r="N41" s="208">
+      <c r="N41" s="205">
         <v>37.119999999999997</v>
       </c>
-      <c r="O41" s="194">
+      <c r="O41" s="191">
         <v>38.85</v>
       </c>
-      <c r="P41" s="194">
+      <c r="P41" s="191">
         <v>40.01</v>
       </c>
-      <c r="Q41" s="195">
+      <c r="Q41" s="192">
         <v>41.07</v>
       </c>
-      <c r="R41" s="150">
+      <c r="R41" s="147">
         <f t="shared" si="1"/>
         <v>37.01</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B42" s="158" t="s">
-        <v>378</v>
-      </c>
-      <c r="C42" s="183">
+      <c r="B42" s="155" t="s">
+        <v>375</v>
+      </c>
+      <c r="C42" s="180">
         <f>MAX(C39:C41)</f>
         <v>49.88</v>
       </c>
-      <c r="D42" s="184">
+      <c r="D42" s="181">
         <f t="shared" ref="D42:H42" si="2">MAX(D39:D41)</f>
         <v>38.42</v>
       </c>
-      <c r="E42" s="184">
+      <c r="E42" s="181">
         <f t="shared" si="2"/>
         <v>34.4</v>
       </c>
-      <c r="F42" s="184">
+      <c r="F42" s="181">
         <f t="shared" si="2"/>
         <v>36.97</v>
       </c>
-      <c r="G42" s="184">
+      <c r="G42" s="181">
         <f t="shared" si="2"/>
         <v>38.520000000000003</v>
       </c>
-      <c r="H42" s="185">
+      <c r="H42" s="182">
         <f t="shared" si="2"/>
         <v>40.14</v>
       </c>
-      <c r="K42" s="158" t="s">
-        <v>378</v>
-      </c>
-      <c r="L42" s="183">
+      <c r="K42" s="155" t="s">
+        <v>375</v>
+      </c>
+      <c r="L42" s="180">
         <f>MAX(L39:L41)</f>
         <v>40.53</v>
       </c>
-      <c r="M42" s="184">
+      <c r="M42" s="181">
         <f t="shared" ref="M42:Q42" si="3">MAX(M39:M41)</f>
         <v>34.840000000000003</v>
       </c>
-      <c r="N42" s="184">
+      <c r="N42" s="181">
         <f t="shared" si="3"/>
         <v>37.15</v>
       </c>
-      <c r="O42" s="184">
+      <c r="O42" s="181">
         <f t="shared" si="3"/>
         <v>38.85</v>
       </c>
-      <c r="P42" s="184">
+      <c r="P42" s="181">
         <f t="shared" si="3"/>
         <v>40.01</v>
       </c>
-      <c r="Q42" s="185">
+      <c r="Q42" s="182">
         <f t="shared" si="3"/>
         <v>41.07</v>
       </c>
-      <c r="R42" s="164"/>
+      <c r="R42" s="161"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B43" s="158" t="s">
-        <v>345</v>
-      </c>
-      <c r="C43" s="186"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="188">
+      <c r="B43" s="155" t="s">
+        <v>342</v>
+      </c>
+      <c r="C43" s="183"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="185">
         <f>AVERAGE(C42:H42)</f>
         <v>39.721666666666671</v>
       </c>
-      <c r="F43" s="187" t="s">
-        <v>347</v>
-      </c>
-      <c r="G43" s="187"/>
-      <c r="H43" s="189"/>
-      <c r="K43" s="158" t="s">
-        <v>345</v>
-      </c>
-      <c r="L43" s="186"/>
-      <c r="M43" s="187"/>
-      <c r="N43" s="188">
+      <c r="F43" s="184" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" s="184"/>
+      <c r="H43" s="186"/>
+      <c r="K43" s="155" t="s">
+        <v>342</v>
+      </c>
+      <c r="L43" s="183"/>
+      <c r="M43" s="184"/>
+      <c r="N43" s="185">
         <f>AVERAGE(L42:Q42)</f>
         <v>38.741666666666667</v>
       </c>
-      <c r="O43" s="187" t="s">
-        <v>347</v>
-      </c>
-      <c r="P43" s="187"/>
-      <c r="Q43" s="189"/>
-      <c r="R43" s="160"/>
+      <c r="O43" s="184" t="s">
+        <v>344</v>
+      </c>
+      <c r="P43" s="184"/>
+      <c r="Q43" s="186"/>
+      <c r="R43" s="157"/>
     </row>
     <row r="45" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="210" t="s">
-        <v>374</v>
-      </c>
-      <c r="K45" s="210" t="s">
-        <v>375</v>
+      <c r="B45" s="207" t="s">
+        <v>371</v>
+      </c>
+      <c r="K45" s="207" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="2:18" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="165" t="s">
-        <v>348</v>
-      </c>
-      <c r="C47" s="172" t="s">
+      <c r="B47" s="162" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" s="169" t="s">
         <v>332</v>
       </c>
-      <c r="D47" s="172" t="s">
+      <c r="D47" s="169" t="s">
         <v>333</v>
       </c>
-      <c r="E47" s="172" t="s">
+      <c r="E47" s="169" t="s">
         <v>334</v>
       </c>
-      <c r="F47" s="172" t="s">
+      <c r="F47" s="169" t="s">
         <v>335</v>
       </c>
-      <c r="G47" s="172" t="s">
+      <c r="G47" s="169" t="s">
         <v>336</v>
       </c>
-      <c r="H47" s="173" t="s">
+      <c r="H47" s="170" t="s">
         <v>337</v>
       </c>
-      <c r="I47" s="159" t="s">
+      <c r="I47" s="156" t="s">
+        <v>343</v>
+      </c>
+      <c r="K47" s="162" t="s">
         <v>346</v>
       </c>
-      <c r="K47" s="165" t="s">
-        <v>349</v>
-      </c>
-      <c r="L47" s="172" t="s">
+      <c r="L47" s="169" t="s">
         <v>332</v>
       </c>
-      <c r="M47" s="172" t="s">
+      <c r="M47" s="169" t="s">
         <v>333</v>
       </c>
-      <c r="N47" s="172" t="s">
+      <c r="N47" s="169" t="s">
         <v>334</v>
       </c>
-      <c r="O47" s="172" t="s">
+      <c r="O47" s="169" t="s">
         <v>335</v>
       </c>
-      <c r="P47" s="172" t="s">
+      <c r="P47" s="169" t="s">
         <v>336</v>
       </c>
-      <c r="Q47" s="173" t="s">
+      <c r="Q47" s="170" t="s">
         <v>337</v>
       </c>
-      <c r="R47" s="159" t="s">
-        <v>346</v>
+      <c r="R47" s="156" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B48" s="141" t="s">
+      <c r="B48" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="174">
+      <c r="C48" s="171">
         <v>10.9</v>
       </c>
-      <c r="D48" s="175">
+      <c r="D48" s="172">
         <v>18.559999999999999</v>
       </c>
-      <c r="E48" s="175">
+      <c r="E48" s="172">
         <v>23.57</v>
       </c>
-      <c r="F48" s="175">
+      <c r="F48" s="172">
         <v>25.91</v>
       </c>
-      <c r="G48" s="175">
+      <c r="G48" s="172">
         <v>26.94</v>
       </c>
-      <c r="H48" s="176">
+      <c r="H48" s="173">
         <v>29.03</v>
       </c>
-      <c r="I48" s="161">
+      <c r="I48" s="158">
         <f>AVERAGE(C48:H48)</f>
         <v>22.484999999999999</v>
       </c>
-      <c r="K48" s="141" t="s">
+      <c r="K48" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="L48" s="174">
+      <c r="L48" s="171">
         <v>16.27</v>
       </c>
-      <c r="M48" s="175">
+      <c r="M48" s="172">
         <v>24.09</v>
       </c>
-      <c r="N48" s="175">
+      <c r="N48" s="172">
         <v>26.91</v>
       </c>
-      <c r="O48" s="175">
+      <c r="O48" s="172">
         <v>29.35</v>
       </c>
-      <c r="P48" s="175">
+      <c r="P48" s="172">
         <v>30.74</v>
       </c>
-      <c r="Q48" s="176">
+      <c r="Q48" s="173">
         <v>32.33</v>
       </c>
-      <c r="R48" s="161">
+      <c r="R48" s="158">
         <f>AVERAGE(L48:Q48)</f>
         <v>26.614999999999998</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B49" s="141" t="s">
+      <c r="B49" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="177">
+      <c r="C49" s="174">
         <v>75.39</v>
       </c>
-      <c r="D49" s="178">
+      <c r="D49" s="175">
         <v>56</v>
       </c>
-      <c r="E49" s="178">
+      <c r="E49" s="175">
         <v>45.81</v>
       </c>
-      <c r="F49" s="178">
+      <c r="F49" s="175">
         <v>40.04</v>
       </c>
-      <c r="G49" s="179">
+      <c r="G49" s="176">
         <v>36.39</v>
       </c>
-      <c r="H49" s="180">
+      <c r="H49" s="177">
         <v>31.76</v>
       </c>
-      <c r="I49" s="162">
+      <c r="I49" s="159">
         <f t="shared" ref="I49:I50" si="4">AVERAGE(C49:H49)</f>
         <v>47.564999999999998</v>
       </c>
-      <c r="K49" s="141" t="s">
+      <c r="K49" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="L49" s="177">
+      <c r="L49" s="174">
         <v>62.37</v>
       </c>
-      <c r="M49" s="178">
+      <c r="M49" s="175">
         <v>46.47</v>
       </c>
-      <c r="N49" s="178">
+      <c r="N49" s="175">
         <v>38.85</v>
       </c>
-      <c r="O49" s="179">
+      <c r="O49" s="176">
         <v>33.880000000000003</v>
       </c>
-      <c r="P49" s="179">
+      <c r="P49" s="176">
         <v>30.33</v>
       </c>
-      <c r="Q49" s="180">
+      <c r="Q49" s="177">
         <v>26.21</v>
       </c>
-      <c r="R49" s="162">
+      <c r="R49" s="159">
         <f t="shared" ref="R49:R50" si="5">AVERAGE(L49:Q49)</f>
         <v>39.684999999999995</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B50" s="143" t="s">
+      <c r="B50" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="181">
+      <c r="C50" s="178">
         <v>13.71</v>
       </c>
-      <c r="D50" s="179">
+      <c r="D50" s="176">
         <v>25.44</v>
       </c>
-      <c r="E50" s="196">
+      <c r="E50" s="193">
         <v>30.62</v>
       </c>
-      <c r="F50" s="196">
+      <c r="F50" s="193">
         <v>34.049999999999997</v>
       </c>
-      <c r="G50" s="178">
+      <c r="G50" s="175">
         <v>36.67</v>
       </c>
-      <c r="H50" s="182">
+      <c r="H50" s="179">
         <v>39.22</v>
       </c>
-      <c r="I50" s="163">
+      <c r="I50" s="160">
         <f t="shared" si="4"/>
         <v>29.951666666666668</v>
       </c>
-      <c r="K50" s="143" t="s">
+      <c r="K50" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="L50" s="181">
+      <c r="L50" s="178">
         <v>21.36</v>
       </c>
-      <c r="M50" s="179">
+      <c r="M50" s="176">
         <v>29.43</v>
       </c>
-      <c r="N50" s="196">
+      <c r="N50" s="193">
         <v>34.24</v>
       </c>
-      <c r="O50" s="178">
+      <c r="O50" s="175">
         <v>36.770000000000003</v>
       </c>
-      <c r="P50" s="178">
+      <c r="P50" s="175">
         <v>38.93</v>
       </c>
-      <c r="Q50" s="182">
+      <c r="Q50" s="179">
         <v>41.46</v>
       </c>
-      <c r="R50" s="163">
+      <c r="R50" s="160">
         <f t="shared" si="5"/>
         <v>33.698333333333338</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B51" s="158" t="s">
-        <v>378</v>
-      </c>
-      <c r="C51" s="183">
+      <c r="B51" s="155" t="s">
+        <v>375</v>
+      </c>
+      <c r="C51" s="180">
         <f>MAX(C48:C50)</f>
         <v>75.39</v>
       </c>
-      <c r="D51" s="184">
+      <c r="D51" s="181">
         <f t="shared" ref="D51:H51" si="6">MAX(D48:D50)</f>
         <v>56</v>
       </c>
-      <c r="E51" s="184">
+      <c r="E51" s="181">
         <f t="shared" si="6"/>
         <v>45.81</v>
       </c>
-      <c r="F51" s="184">
+      <c r="F51" s="181">
         <f t="shared" si="6"/>
         <v>40.04</v>
       </c>
-      <c r="G51" s="184">
+      <c r="G51" s="181">
         <f t="shared" si="6"/>
         <v>36.67</v>
       </c>
-      <c r="H51" s="185">
+      <c r="H51" s="182">
         <f t="shared" si="6"/>
         <v>39.22</v>
       </c>
-      <c r="K51" s="158" t="s">
-        <v>378</v>
-      </c>
-      <c r="L51" s="183">
+      <c r="K51" s="155" t="s">
+        <v>375</v>
+      </c>
+      <c r="L51" s="180">
         <f>MAX(L48:L50)</f>
         <v>62.37</v>
       </c>
-      <c r="M51" s="184">
+      <c r="M51" s="181">
         <f t="shared" ref="M51:Q51" si="7">MAX(M48:M50)</f>
         <v>46.47</v>
       </c>
-      <c r="N51" s="184">
+      <c r="N51" s="181">
         <f t="shared" si="7"/>
         <v>38.85</v>
       </c>
-      <c r="O51" s="184">
+      <c r="O51" s="181">
         <f t="shared" si="7"/>
         <v>36.770000000000003</v>
       </c>
-      <c r="P51" s="184">
+      <c r="P51" s="181">
         <f t="shared" si="7"/>
         <v>38.93</v>
       </c>
-      <c r="Q51" s="185">
+      <c r="Q51" s="182">
         <f t="shared" si="7"/>
         <v>41.46</v>
       </c>
       <c r="R51" s="34"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B52" s="158" t="s">
-        <v>345</v>
-      </c>
-      <c r="C52" s="186"/>
-      <c r="D52" s="187"/>
-      <c r="E52" s="188">
+      <c r="B52" s="155" t="s">
+        <v>342</v>
+      </c>
+      <c r="C52" s="183"/>
+      <c r="D52" s="184"/>
+      <c r="E52" s="185">
         <f>AVERAGE(C51:H51)</f>
         <v>48.854999999999997</v>
       </c>
-      <c r="F52" s="187" t="s">
-        <v>347</v>
-      </c>
-      <c r="G52" s="187"/>
-      <c r="H52" s="189"/>
-      <c r="K52" s="158" t="s">
-        <v>345</v>
-      </c>
-      <c r="L52" s="186"/>
-      <c r="M52" s="187"/>
-      <c r="N52" s="188">
+      <c r="F52" s="184" t="s">
+        <v>344</v>
+      </c>
+      <c r="G52" s="184"/>
+      <c r="H52" s="186"/>
+      <c r="K52" s="155" t="s">
+        <v>342</v>
+      </c>
+      <c r="L52" s="183"/>
+      <c r="M52" s="184"/>
+      <c r="N52" s="185">
         <f>AVERAGE(L51:Q51)</f>
         <v>44.141666666666673</v>
       </c>
-      <c r="O52" s="187" t="s">
-        <v>347</v>
-      </c>
-      <c r="P52" s="187"/>
-      <c r="Q52" s="189"/>
+      <c r="O52" s="184" t="s">
+        <v>344</v>
+      </c>
+      <c r="P52" s="184"/>
+      <c r="Q52" s="186"/>
       <c r="R52" s="34"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F67" s="169" t="s">
-        <v>352</v>
+      <c r="F67" s="166" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -21344,12 +21326,12 @@
   <dimension ref="B1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F15" activeCellId="4" sqref="F3:G3 F4:G4 F7:G8 F11:G12 F15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.81640625" style="198" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" style="195" customWidth="1"/>
     <col min="3" max="3" width="9.453125" customWidth="1"/>
     <col min="4" max="4" width="7.26953125" customWidth="1"/>
     <col min="5" max="5" width="6.7265625" customWidth="1"/>
@@ -21361,156 +21343,156 @@
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.35">
       <c r="C1" s="34"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="139"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="136"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B2" s="200" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="201" t="s">
-        <v>373</v>
-      </c>
-      <c r="D2" s="202" t="s">
+      <c r="B2" s="197" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="198" t="s">
         <v>370</v>
       </c>
-      <c r="E2" s="202" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2" s="202" t="s">
-        <v>358</v>
-      </c>
-      <c r="G2" s="207"/>
+      <c r="D2" s="199" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" s="199" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" s="199" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="204"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="139"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="136"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B3" s="266" t="s">
-        <v>353</v>
-      </c>
-      <c r="C3" s="203" t="s">
+      <c r="B3" s="263" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="200" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="204">
+      <c r="D3" s="201">
         <v>39.72</v>
       </c>
-      <c r="E3" s="205">
+      <c r="E3" s="202">
         <v>37.747619047619004</v>
       </c>
-      <c r="F3" s="205" t="s">
-        <v>361</v>
-      </c>
-      <c r="G3" s="207">
+      <c r="F3" s="202" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" s="204">
         <f>E3-D3</f>
         <v>-1.9723809523809948</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="139"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="136"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B4" s="266"/>
-      <c r="C4" s="203" t="s">
+      <c r="B4" s="263"/>
+      <c r="C4" s="200" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="205">
+      <c r="D4" s="202">
         <v>38.72</v>
       </c>
-      <c r="E4" s="206">
+      <c r="E4" s="203">
         <v>47.199999999999996</v>
       </c>
-      <c r="F4" s="205" t="s">
-        <v>365</v>
-      </c>
-      <c r="G4" s="207">
+      <c r="F4" s="202" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="204">
         <f t="shared" ref="G4:G18" si="0">E4-D4</f>
         <v>8.4799999999999969</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="139"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="136"/>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B5" s="266"/>
-      <c r="C5" s="203" t="s">
-        <v>348</v>
-      </c>
-      <c r="D5" s="206">
+      <c r="B5" s="263"/>
+      <c r="C5" s="200" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="203">
         <v>48.86</v>
       </c>
-      <c r="E5" s="206">
+      <c r="E5" s="203">
         <v>39.46</v>
       </c>
-      <c r="F5" s="205" t="s">
-        <v>354</v>
-      </c>
-      <c r="G5" s="207">
+      <c r="F5" s="202" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="204">
         <f t="shared" si="0"/>
         <v>-9.3999999999999986</v>
       </c>
-      <c r="H5" s="169"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="139"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="136"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B6" s="266"/>
-      <c r="C6" s="203" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="206">
+      <c r="B6" s="263"/>
+      <c r="C6" s="200" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="203">
         <v>44.14</v>
       </c>
-      <c r="E6" s="206">
+      <c r="E6" s="203">
         <v>41.449999999999996</v>
       </c>
-      <c r="F6" s="205" t="s">
-        <v>367</v>
-      </c>
-      <c r="G6" s="207">
+      <c r="F6" s="202" t="s">
+        <v>364</v>
+      </c>
+      <c r="G6" s="204">
         <f t="shared" si="0"/>
         <v>-2.6900000000000048</v>
       </c>
@@ -21518,22 +21500,22 @@
       <c r="L6"/>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B7" s="266" t="s">
-        <v>350</v>
-      </c>
-      <c r="C7" s="203" t="s">
+      <c r="B7" s="263" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="200" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="204">
+      <c r="D7" s="201">
         <v>32.770000000000003</v>
       </c>
-      <c r="E7" s="205">
+      <c r="E7" s="202">
         <v>52.073333333333302</v>
       </c>
-      <c r="F7" s="205" t="s">
-        <v>355</v>
-      </c>
-      <c r="G7" s="207">
+      <c r="F7" s="202" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="204">
         <f t="shared" si="0"/>
         <v>19.303333333333299</v>
       </c>
@@ -21543,30 +21525,30 @@
         <v>233</v>
       </c>
       <c r="AE7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AF7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AG7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B8" s="266"/>
-      <c r="C8" s="203" t="s">
+      <c r="B8" s="263"/>
+      <c r="C8" s="200" t="s">
         <v>298</v>
       </c>
-      <c r="D8" s="206">
+      <c r="D8" s="203">
         <v>36.65</v>
       </c>
-      <c r="E8" s="206">
+      <c r="E8" s="203">
         <v>41.85</v>
       </c>
-      <c r="F8" s="205" t="s">
-        <v>355</v>
-      </c>
-      <c r="G8" s="207">
+      <c r="F8" s="202" t="s">
+        <v>352</v>
+      </c>
+      <c r="G8" s="204">
         <f t="shared" si="0"/>
         <v>5.2000000000000028</v>
       </c>
@@ -21576,30 +21558,30 @@
         <v>297</v>
       </c>
       <c r="AE8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AF8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AG8">
         <v>0.55894999999999995</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B9" s="266"/>
-      <c r="C9" s="203" t="s">
-        <v>348</v>
-      </c>
-      <c r="D9" s="206">
+      <c r="B9" s="263"/>
+      <c r="C9" s="200" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="203">
         <v>22.49</v>
       </c>
-      <c r="E9" s="206">
+      <c r="E9" s="203">
         <v>55.894999999999996</v>
       </c>
-      <c r="F9" s="205" t="s">
-        <v>363</v>
-      </c>
-      <c r="G9" s="207">
+      <c r="F9" s="202" t="s">
+        <v>360</v>
+      </c>
+      <c r="G9" s="204">
         <f t="shared" si="0"/>
         <v>33.405000000000001</v>
       </c>
@@ -21609,30 +21591,30 @@
         <v>297</v>
       </c>
       <c r="AE9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AF9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG9">
         <v>0.56850000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B10" s="266"/>
-      <c r="C10" s="203" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" s="206">
+      <c r="B10" s="263"/>
+      <c r="C10" s="200" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="203">
         <v>26.62</v>
       </c>
-      <c r="E10" s="206">
+      <c r="E10" s="203">
         <v>45.300000000000004</v>
       </c>
-      <c r="F10" s="205" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" s="207">
+      <c r="F10" s="202" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" s="204">
         <f t="shared" si="0"/>
         <v>18.680000000000003</v>
       </c>
@@ -21642,32 +21624,32 @@
         <v>298</v>
       </c>
       <c r="AE10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AF10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AG10">
         <v>0.55894999999999995</v>
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B11" s="266" t="s">
-        <v>351</v>
-      </c>
-      <c r="C11" s="203" t="s">
+      <c r="B11" s="263" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11" s="200" t="s">
         <v>297</v>
       </c>
-      <c r="D11" s="206">
+      <c r="D11" s="203">
         <v>32.82</v>
       </c>
-      <c r="E11" s="206">
+      <c r="E11" s="203">
         <v>48.791891891891801</v>
       </c>
-      <c r="F11" s="205" t="s">
-        <v>362</v>
-      </c>
-      <c r="G11" s="207">
+      <c r="F11" s="202" t="s">
+        <v>359</v>
+      </c>
+      <c r="G11" s="204">
         <f t="shared" si="0"/>
         <v>15.971891891891801</v>
       </c>
@@ -21677,96 +21659,96 @@
         <v>298</v>
       </c>
       <c r="AE11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AF11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG11">
         <v>0.56850000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B12" s="266"/>
-      <c r="C12" s="203" t="s">
+      <c r="B12" s="263"/>
+      <c r="C12" s="200" t="s">
         <v>298</v>
       </c>
-      <c r="D12" s="206">
+      <c r="D12" s="203">
         <v>26.35</v>
       </c>
-      <c r="E12" s="206">
+      <c r="E12" s="203">
         <v>62.899999999999899</v>
       </c>
-      <c r="F12" s="205" t="s">
-        <v>366</v>
-      </c>
-      <c r="G12" s="207">
+      <c r="F12" s="202" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" s="204">
         <f t="shared" si="0"/>
         <v>36.549999999999898</v>
       </c>
       <c r="H12" s="1"/>
       <c r="L12"/>
       <c r="AD12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AE12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AF12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AG12">
         <v>0.55894999999999995</v>
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B13" s="266"/>
-      <c r="C13" s="203" t="s">
-        <v>348</v>
-      </c>
-      <c r="D13" s="206">
+      <c r="B13" s="263"/>
+      <c r="C13" s="200" t="s">
+        <v>345</v>
+      </c>
+      <c r="D13" s="203">
         <v>47.57</v>
       </c>
-      <c r="E13" s="206">
+      <c r="E13" s="203">
         <v>38.793478260869499</v>
       </c>
-      <c r="F13" s="205" t="s">
-        <v>354</v>
-      </c>
-      <c r="G13" s="207">
+      <c r="F13" s="202" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="204">
         <f t="shared" si="0"/>
         <v>-8.7765217391305015</v>
       </c>
       <c r="H13" s="1"/>
       <c r="L13"/>
       <c r="AD13" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AE13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AF13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG13">
         <v>0.56850000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B14" s="266"/>
-      <c r="C14" s="203" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="206">
+      <c r="B14" s="263"/>
+      <c r="C14" s="200" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="203">
         <v>39.69</v>
       </c>
-      <c r="E14" s="206">
+      <c r="E14" s="203">
         <v>57.199999999999996</v>
       </c>
-      <c r="F14" s="205" t="s">
-        <v>367</v>
-      </c>
-      <c r="G14" s="207">
+      <c r="F14" s="202" t="s">
+        <v>364</v>
+      </c>
+      <c r="G14" s="204">
         <f t="shared" si="0"/>
         <v>17.509999999999998</v>
       </c>
@@ -21776,32 +21758,32 @@
         <v>339</v>
       </c>
       <c r="AE14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AF14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AG14">
         <v>0.55894999999999995</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B15" s="266" t="s">
-        <v>352</v>
-      </c>
-      <c r="C15" s="203" t="s">
+      <c r="B15" s="263" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" s="200" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="206">
+      <c r="D15" s="203">
         <v>34.42</v>
       </c>
-      <c r="E15" s="206">
+      <c r="E15" s="203">
         <v>54.466666666666598</v>
       </c>
-      <c r="F15" s="205" t="s">
-        <v>361</v>
-      </c>
-      <c r="G15" s="207">
+      <c r="F15" s="202" t="s">
+        <v>358</v>
+      </c>
+      <c r="G15" s="204">
         <f t="shared" si="0"/>
         <v>20.046666666666596</v>
       </c>
@@ -21811,30 +21793,30 @@
         <v>339</v>
       </c>
       <c r="AE15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AF15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG15">
         <v>0.56850000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B16" s="266"/>
-      <c r="C16" s="203" t="s">
+      <c r="B16" s="263"/>
+      <c r="C16" s="200" t="s">
         <v>298</v>
       </c>
-      <c r="D16" s="206">
+      <c r="D16" s="203">
         <v>37.01</v>
       </c>
-      <c r="E16" s="206">
+      <c r="E16" s="203">
         <v>51.7</v>
       </c>
-      <c r="F16" s="205" t="s">
-        <v>356</v>
-      </c>
-      <c r="G16" s="207">
+      <c r="F16" s="202" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16" s="204">
         <f t="shared" si="0"/>
         <v>14.690000000000005</v>
       </c>
@@ -21842,20 +21824,20 @@
       <c r="L16"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="266"/>
-      <c r="C17" s="203" t="s">
-        <v>348</v>
-      </c>
-      <c r="D17" s="206">
+      <c r="B17" s="263"/>
+      <c r="C17" s="200" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" s="203">
         <v>29.95</v>
       </c>
-      <c r="E17" s="206">
+      <c r="E17" s="203">
         <v>56.85</v>
       </c>
-      <c r="F17" s="205" t="s">
-        <v>364</v>
-      </c>
-      <c r="G17" s="207">
+      <c r="F17" s="202" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="204">
         <f t="shared" si="0"/>
         <v>26.900000000000002</v>
       </c>
@@ -21863,20 +21845,20 @@
       <c r="L17"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="266"/>
-      <c r="C18" s="203" t="s">
-        <v>349</v>
-      </c>
-      <c r="D18" s="206">
+      <c r="B18" s="263"/>
+      <c r="C18" s="200" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="203">
         <v>33.700000000000003</v>
       </c>
-      <c r="E18" s="206">
+      <c r="E18" s="203">
         <v>50.149999999999991</v>
       </c>
-      <c r="F18" s="205" t="s">
-        <v>369</v>
-      </c>
-      <c r="G18" s="207">
+      <c r="F18" s="202" t="s">
+        <v>366</v>
+      </c>
+      <c r="G18" s="204">
         <f t="shared" si="0"/>
         <v>16.449999999999989</v>
       </c>
@@ -21884,7 +21866,7 @@
       <c r="L18"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="199"/>
+      <c r="C19" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -21902,1042 +21884,1042 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9452798D-BC4F-4810-979A-6B98BF9A72C1}">
   <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="252"/>
-    <col min="2" max="2" width="11.1796875" style="249" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.90625" style="250" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="251" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="251" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" style="251" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.26953125" style="251" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" style="251" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.90625" style="251" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7265625" style="251" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.26953125" style="251" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="252"/>
+    <col min="1" max="1" width="8.7265625" style="249"/>
+    <col min="2" max="2" width="11.1796875" style="246" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.90625" style="247" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="248" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="248" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" style="248" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" style="248" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" style="248" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" style="248" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" style="248" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.26953125" style="248" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="249"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="212" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="211"/>
-      <c r="C1" s="267" t="s">
+    <row r="1" spans="2:14" s="209" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="208"/>
+      <c r="C1" s="264" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="267" t="s">
+        <v>377</v>
+      </c>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="267" t="s">
+        <v>367</v>
+      </c>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="269"/>
+    </row>
+    <row r="2" spans="2:14" s="217" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="211" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="212" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" s="212" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="213" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="214" t="s">
+        <v>350</v>
+      </c>
+      <c r="H2" s="215" t="s">
+        <v>347</v>
+      </c>
+      <c r="I2" s="215" t="s">
+        <v>348</v>
+      </c>
+      <c r="J2" s="216" t="s">
+        <v>349</v>
+      </c>
+      <c r="K2" s="214" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="215" t="s">
+        <v>347</v>
+      </c>
+      <c r="M2" s="215" t="s">
+        <v>348</v>
+      </c>
+      <c r="N2" s="216" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="219" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" s="220" t="s">
+        <v>359</v>
+      </c>
+      <c r="F3" s="221" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" s="222">
+        <v>39.9</v>
+      </c>
+      <c r="H3" s="223">
+        <v>44.519999999999897</v>
+      </c>
+      <c r="I3" s="223">
+        <v>56.12</v>
+      </c>
+      <c r="J3" s="224">
+        <v>51.559999999999903</v>
+      </c>
+      <c r="K3" s="222">
+        <v>43.55</v>
+      </c>
+      <c r="L3" s="223">
+        <v>27.62</v>
+      </c>
+      <c r="M3" s="223">
+        <v>40.699999999999903</v>
+      </c>
+      <c r="N3" s="224">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="227" t="s">
         <v>379</v>
       </c>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="270" t="s">
+      <c r="D4" s="228" t="s">
         <v>380</v>
       </c>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="270" t="s">
-        <v>370</v>
-      </c>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="272"/>
-    </row>
-    <row r="2" spans="2:14" s="220" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="213" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="214" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" s="215" t="s">
-        <v>350</v>
-      </c>
-      <c r="E2" s="215" t="s">
+      <c r="E4" s="228" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="229" t="s">
+        <v>381</v>
+      </c>
+      <c r="G4" s="230">
+        <v>56.08</v>
+      </c>
+      <c r="H4" s="231">
+        <v>38.22</v>
+      </c>
+      <c r="I4" s="231">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="J4" s="232">
+        <v>41.67</v>
+      </c>
+      <c r="K4" s="233">
+        <v>53.459999999999901</v>
+      </c>
+      <c r="L4" s="234">
+        <v>20.2</v>
+      </c>
+      <c r="M4" s="234">
+        <v>53.459999999999901</v>
+      </c>
+      <c r="N4" s="235">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="227" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="228" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="228" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" s="229" t="s">
+        <v>384</v>
+      </c>
+      <c r="G5" s="230">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="H5" s="231">
+        <v>52.75</v>
+      </c>
+      <c r="I5" s="231">
+        <v>56.75</v>
+      </c>
+      <c r="J5" s="232">
+        <v>53.23</v>
+      </c>
+      <c r="K5" s="233">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="L5" s="234">
+        <v>35.94</v>
+      </c>
+      <c r="M5" s="234">
+        <v>28.18</v>
+      </c>
+      <c r="N5" s="235">
+        <v>35.880000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="226" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="227" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="228" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="228" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6" s="229" t="s">
+        <v>388</v>
+      </c>
+      <c r="G6" s="230">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="H6" s="231">
+        <v>45.7</v>
+      </c>
+      <c r="I6" s="231">
+        <v>52.9</v>
+      </c>
+      <c r="J6" s="232">
+        <v>53.4</v>
+      </c>
+      <c r="K6" s="233">
+        <v>40.08</v>
+      </c>
+      <c r="L6" s="234">
+        <v>29.69</v>
+      </c>
+      <c r="M6" s="234">
+        <v>34.56</v>
+      </c>
+      <c r="N6" s="235">
+        <v>35.75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="226" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="227" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="228" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" s="228" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="229" t="s">
+        <v>392</v>
+      </c>
+      <c r="G7" s="230">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="H7" s="231">
+        <v>52.92</v>
+      </c>
+      <c r="I7" s="231">
+        <v>44.82</v>
+      </c>
+      <c r="J7" s="232">
+        <v>52.349999999999902</v>
+      </c>
+      <c r="K7" s="233">
+        <v>39.68</v>
+      </c>
+      <c r="L7" s="234">
+        <v>35.449999999999903</v>
+      </c>
+      <c r="M7" s="234">
+        <v>27.6</v>
+      </c>
+      <c r="N7" s="235">
+        <v>36.950000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="226" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="227" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="228" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="228" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8" s="229" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" s="230">
+        <v>42</v>
+      </c>
+      <c r="H8" s="231">
+        <v>54</v>
+      </c>
+      <c r="I8" s="231">
+        <v>36.270000000000003</v>
+      </c>
+      <c r="J8" s="232">
+        <v>59.4</v>
+      </c>
+      <c r="K8" s="233">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="L8" s="234">
+        <v>35.339999999999897</v>
+      </c>
+      <c r="M8" s="234">
+        <v>25.4</v>
+      </c>
+      <c r="N8" s="235">
+        <v>39.26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="226" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="227" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9" s="228" t="s">
+        <v>365</v>
+      </c>
+      <c r="E9" s="228" t="s">
+        <v>395</v>
+      </c>
+      <c r="F9" s="229" t="s">
+        <v>392</v>
+      </c>
+      <c r="G9" s="230">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="H9" s="231">
+        <v>52.8</v>
+      </c>
+      <c r="I9" s="231">
+        <v>41.67</v>
+      </c>
+      <c r="J9" s="232">
+        <v>56.3</v>
+      </c>
+      <c r="K9" s="233">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="L9" s="234">
+        <v>34.599999999999902</v>
+      </c>
+      <c r="M9" s="234">
+        <v>29.659999999999901</v>
+      </c>
+      <c r="N9" s="235">
+        <v>35.74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="226" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="227" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" s="228" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="228" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="229" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="230">
+        <v>39.04</v>
+      </c>
+      <c r="H10" s="231">
+        <v>53.069999999999901</v>
+      </c>
+      <c r="I10" s="231">
+        <v>40</v>
+      </c>
+      <c r="J10" s="232">
+        <v>56.26</v>
+      </c>
+      <c r="K10" s="233">
+        <v>39.06</v>
+      </c>
+      <c r="L10" s="234">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="M10" s="234">
+        <v>24.86</v>
+      </c>
+      <c r="N10" s="235">
+        <v>37.44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="226" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="227" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" s="228" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="228" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" s="229" t="s">
+        <v>388</v>
+      </c>
+      <c r="G11" s="230">
+        <v>46.2</v>
+      </c>
+      <c r="H11" s="231">
+        <v>41.52</v>
+      </c>
+      <c r="I11" s="231">
+        <v>63.5</v>
+      </c>
+      <c r="J11" s="232">
+        <v>56.1</v>
+      </c>
+      <c r="K11" s="233">
+        <v>46.98</v>
+      </c>
+      <c r="L11" s="234">
+        <v>25.14</v>
+      </c>
+      <c r="M11" s="234">
+        <v>45.629999999999903</v>
+      </c>
+      <c r="N11" s="235">
+        <v>29.23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="226" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="227" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="228" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="228" t="s">
+        <v>397</v>
+      </c>
+      <c r="F12" s="229" t="s">
+        <v>398</v>
+      </c>
+      <c r="G12" s="230">
+        <v>45.76</v>
+      </c>
+      <c r="H12" s="231">
+        <v>62.96</v>
+      </c>
+      <c r="I12" s="231">
+        <v>36.199999999999903</v>
+      </c>
+      <c r="J12" s="232">
+        <v>51.82</v>
+      </c>
+      <c r="K12" s="233">
+        <v>46.01</v>
+      </c>
+      <c r="L12" s="234">
+        <v>46.01</v>
+      </c>
+      <c r="M12" s="234">
+        <v>18.099999999999898</v>
+      </c>
+      <c r="N12" s="235">
+        <v>35.89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="226" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="227" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" s="228" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" s="228" t="s">
+        <v>395</v>
+      </c>
+      <c r="F13" s="229" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="230">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="H13" s="231">
+        <v>44.18</v>
+      </c>
+      <c r="I13" s="231">
+        <v>52.03</v>
+      </c>
+      <c r="J13" s="232">
+        <v>53.92</v>
+      </c>
+      <c r="K13" s="233">
+        <v>41.89</v>
+      </c>
+      <c r="L13" s="234">
+        <v>27.81</v>
+      </c>
+      <c r="M13" s="234">
+        <v>37.9</v>
+      </c>
+      <c r="N13" s="235">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="226" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="227" t="s">
+        <v>400</v>
+      </c>
+      <c r="D14" s="228" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="228" t="s">
+        <v>394</v>
+      </c>
+      <c r="F14" s="229" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" s="230">
+        <v>36.1</v>
+      </c>
+      <c r="H14" s="231">
+        <v>47.15</v>
+      </c>
+      <c r="I14" s="231">
+        <v>51.18</v>
+      </c>
+      <c r="J14" s="232">
+        <v>51.5</v>
+      </c>
+      <c r="K14" s="233">
+        <v>41.099999999999902</v>
+      </c>
+      <c r="L14" s="234">
+        <v>31.18</v>
+      </c>
+      <c r="M14" s="234">
+        <v>34.33</v>
+      </c>
+      <c r="N14" s="235">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="226" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="227" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="228" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" s="228" t="s">
+        <v>363</v>
+      </c>
+      <c r="F15" s="229" t="s">
+        <v>392</v>
+      </c>
+      <c r="G15" s="230">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="H15" s="231">
+        <v>51.47</v>
+      </c>
+      <c r="I15" s="231">
+        <v>42.33</v>
+      </c>
+      <c r="J15" s="232">
+        <v>57.4</v>
+      </c>
+      <c r="K15" s="233">
+        <v>41.23</v>
+      </c>
+      <c r="L15" s="234">
+        <v>31.45</v>
+      </c>
+      <c r="M15" s="234">
+        <v>30.4</v>
+      </c>
+      <c r="N15" s="235">
+        <v>38.15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="226" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="227" t="s">
+        <v>403</v>
+      </c>
+      <c r="D16" s="228" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16" s="228" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="229" t="s">
+        <v>366</v>
+      </c>
+      <c r="G16" s="230">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H16" s="231">
+        <v>51.07</v>
+      </c>
+      <c r="I16" s="231">
+        <v>54.25</v>
+      </c>
+      <c r="J16" s="232">
+        <v>52.92</v>
+      </c>
+      <c r="K16" s="233">
+        <v>39.839999999999897</v>
+      </c>
+      <c r="L16" s="234">
+        <v>34.11</v>
+      </c>
+      <c r="M16" s="234">
+        <v>29.53</v>
+      </c>
+      <c r="N16" s="235">
+        <v>36.36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="226" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="227" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" s="228" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="228" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="229" t="s">
+        <v>405</v>
+      </c>
+      <c r="G17" s="230">
+        <v>41.08</v>
+      </c>
+      <c r="H17" s="231">
+        <v>57.17</v>
+      </c>
+      <c r="I17" s="231">
+        <v>36.6</v>
+      </c>
+      <c r="J17" s="232">
+        <v>56.87</v>
+      </c>
+      <c r="K17" s="233">
+        <v>41.23</v>
+      </c>
+      <c r="L17" s="234">
+        <v>41</v>
+      </c>
+      <c r="M17" s="234">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="N17" s="235">
+        <v>38.94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="226" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="227" t="s">
+        <v>388</v>
+      </c>
+      <c r="D18" s="228" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="228" t="s">
+        <v>394</v>
+      </c>
+      <c r="F18" s="229" t="s">
+        <v>388</v>
+      </c>
+      <c r="G18" s="230">
+        <v>49.6</v>
+      </c>
+      <c r="H18" s="231">
+        <v>50.46</v>
+      </c>
+      <c r="I18" s="231">
+        <v>30.68</v>
+      </c>
+      <c r="J18" s="232">
+        <v>66.149999999999906</v>
+      </c>
+      <c r="K18" s="233">
+        <v>45.2</v>
+      </c>
+      <c r="L18" s="234">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="M18" s="234">
+        <v>21.25</v>
+      </c>
+      <c r="N18" s="235">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="226" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="227" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="228" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="228" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="229" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="230">
+        <v>47.38</v>
+      </c>
+      <c r="H19" s="231">
+        <v>64.22</v>
+      </c>
+      <c r="I19" s="231">
+        <v>23.63</v>
+      </c>
+      <c r="J19" s="232">
+        <v>57.3</v>
+      </c>
+      <c r="K19" s="233">
+        <v>45.67</v>
+      </c>
+      <c r="L19" s="234">
+        <v>45.67</v>
+      </c>
+      <c r="M19" s="234">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="N19" s="235">
+        <v>36.770000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="226" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="227" t="s">
+        <v>407</v>
+      </c>
+      <c r="D20" s="228" t="s">
+        <v>390</v>
+      </c>
+      <c r="E20" s="228" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" s="229" t="s">
+        <v>408</v>
+      </c>
+      <c r="G20" s="230">
+        <v>43.45</v>
+      </c>
+      <c r="H20" s="231">
+        <v>59.4</v>
+      </c>
+      <c r="I20" s="231">
+        <v>27.06</v>
+      </c>
+      <c r="J20" s="232">
+        <v>56.169999999999902</v>
+      </c>
+      <c r="K20" s="233">
+        <v>43.4</v>
+      </c>
+      <c r="L20" s="234">
+        <v>43.4</v>
+      </c>
+      <c r="M20" s="234">
+        <v>15.55</v>
+      </c>
+      <c r="N20" s="235">
+        <v>41.05</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="226" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="227" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" s="228" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" s="228" t="s">
+        <v>409</v>
+      </c>
+      <c r="F21" s="229" t="s">
+        <v>405</v>
+      </c>
+      <c r="G21" s="230">
+        <v>45.05</v>
+      </c>
+      <c r="H21" s="231">
+        <v>60.199999999999903</v>
+      </c>
+      <c r="I21" s="231">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="J21" s="232">
+        <v>54.87</v>
+      </c>
+      <c r="K21" s="233">
+        <v>42.69</v>
+      </c>
+      <c r="L21" s="234">
+        <v>42.69</v>
+      </c>
+      <c r="M21" s="234">
+        <v>20.5</v>
+      </c>
+      <c r="N21" s="235">
+        <v>36.809999999999903</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="226" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="227" t="s">
+        <v>390</v>
+      </c>
+      <c r="D22" s="228" t="s">
+        <v>386</v>
+      </c>
+      <c r="E22" s="228" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" s="229" t="s">
+        <v>384</v>
+      </c>
+      <c r="G22" s="230">
+        <v>44.269999999999897</v>
+      </c>
+      <c r="H22" s="231">
+        <v>60.97</v>
+      </c>
+      <c r="I22" s="231">
+        <v>38.519999999999897</v>
+      </c>
+      <c r="J22" s="232">
+        <v>43.05</v>
+      </c>
+      <c r="K22" s="233">
+        <v>42.46</v>
+      </c>
+      <c r="L22" s="234">
+        <v>38.64</v>
+      </c>
+      <c r="M22" s="234">
+        <v>31.8</v>
+      </c>
+      <c r="N22" s="235">
+        <v>29.56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="226" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23" s="227" t="s">
         <v>351</v>
       </c>
-      <c r="F2" s="216" t="s">
-        <v>352</v>
-      </c>
-      <c r="G2" s="217" t="s">
-        <v>353</v>
-      </c>
-      <c r="H2" s="218" t="s">
-        <v>350</v>
-      </c>
-      <c r="I2" s="218" t="s">
+      <c r="D23" s="228" t="s">
+        <v>360</v>
+      </c>
+      <c r="E23" s="228" t="s">
         <v>351</v>
       </c>
-      <c r="J2" s="219" t="s">
-        <v>352</v>
-      </c>
-      <c r="K2" s="217" t="s">
-        <v>353</v>
-      </c>
-      <c r="L2" s="218" t="s">
-        <v>350</v>
-      </c>
-      <c r="M2" s="218" t="s">
-        <v>351</v>
-      </c>
-      <c r="N2" s="219" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="221" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="222" t="s">
-        <v>381</v>
-      </c>
-      <c r="D3" s="223" t="s">
-        <v>368</v>
-      </c>
-      <c r="E3" s="223" t="s">
-        <v>362</v>
-      </c>
-      <c r="F3" s="224" t="s">
+      <c r="F23" s="229" t="s">
         <v>361</v>
       </c>
-      <c r="G3" s="225">
-        <v>39.9</v>
-      </c>
-      <c r="H3" s="226">
-        <v>44.519999999999897</v>
-      </c>
-      <c r="I3" s="226">
-        <v>56.12</v>
-      </c>
-      <c r="J3" s="227">
-        <v>51.559999999999903</v>
-      </c>
-      <c r="K3" s="225">
-        <v>43.55</v>
-      </c>
-      <c r="L3" s="226">
-        <v>27.62</v>
-      </c>
-      <c r="M3" s="226">
-        <v>40.699999999999903</v>
-      </c>
-      <c r="N3" s="227">
-        <v>31.68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="229" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="230" t="s">
-        <v>382</v>
-      </c>
-      <c r="D4" s="231" t="s">
-        <v>383</v>
-      </c>
-      <c r="E4" s="231" t="s">
-        <v>382</v>
-      </c>
-      <c r="F4" s="232" t="s">
-        <v>384</v>
-      </c>
-      <c r="G4" s="233">
-        <v>56.08</v>
-      </c>
-      <c r="H4" s="234">
-        <v>38.22</v>
-      </c>
-      <c r="I4" s="234">
-        <v>71.349999999999994</v>
-      </c>
-      <c r="J4" s="235">
-        <v>41.67</v>
-      </c>
-      <c r="K4" s="236">
-        <v>53.459999999999901</v>
-      </c>
-      <c r="L4" s="237">
-        <v>20.2</v>
-      </c>
-      <c r="M4" s="237">
-        <v>53.459999999999901</v>
-      </c>
-      <c r="N4" s="238">
-        <v>26.34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="229" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="230" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" s="231" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="231" t="s">
-        <v>385</v>
-      </c>
-      <c r="F5" s="232" t="s">
-        <v>387</v>
-      </c>
-      <c r="G5" s="233">
-        <v>40.049999999999997</v>
-      </c>
-      <c r="H5" s="234">
-        <v>52.75</v>
-      </c>
-      <c r="I5" s="234">
-        <v>56.75</v>
-      </c>
-      <c r="J5" s="235">
-        <v>53.23</v>
-      </c>
-      <c r="K5" s="236">
-        <v>39.659999999999997</v>
-      </c>
-      <c r="L5" s="237">
-        <v>35.94</v>
-      </c>
-      <c r="M5" s="237">
-        <v>28.18</v>
-      </c>
-      <c r="N5" s="238">
-        <v>35.880000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="229" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="230" t="s">
-        <v>388</v>
-      </c>
-      <c r="D6" s="231" t="s">
-        <v>389</v>
-      </c>
-      <c r="E6" s="231" t="s">
-        <v>390</v>
-      </c>
-      <c r="F6" s="232" t="s">
-        <v>391</v>
-      </c>
-      <c r="G6" s="233">
-        <v>36.880000000000003</v>
-      </c>
-      <c r="H6" s="234">
-        <v>45.7</v>
-      </c>
-      <c r="I6" s="234">
-        <v>52.9</v>
-      </c>
-      <c r="J6" s="235">
-        <v>53.4</v>
-      </c>
-      <c r="K6" s="236">
-        <v>40.08</v>
-      </c>
-      <c r="L6" s="237">
-        <v>29.69</v>
-      </c>
-      <c r="M6" s="237">
-        <v>34.56</v>
-      </c>
-      <c r="N6" s="238">
-        <v>35.75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="229" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="230" t="s">
-        <v>392</v>
-      </c>
-      <c r="D7" s="231" t="s">
-        <v>393</v>
-      </c>
-      <c r="E7" s="231" t="s">
-        <v>394</v>
-      </c>
-      <c r="F7" s="232" t="s">
-        <v>395</v>
-      </c>
-      <c r="G7" s="233">
-        <v>37.049999999999997</v>
-      </c>
-      <c r="H7" s="234">
-        <v>52.92</v>
-      </c>
-      <c r="I7" s="234">
-        <v>44.82</v>
-      </c>
-      <c r="J7" s="235">
-        <v>52.349999999999902</v>
-      </c>
-      <c r="K7" s="236">
-        <v>39.68</v>
-      </c>
-      <c r="L7" s="237">
-        <v>35.449999999999903</v>
-      </c>
-      <c r="M7" s="237">
-        <v>27.6</v>
-      </c>
-      <c r="N7" s="238">
-        <v>36.950000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="229" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="230" t="s">
-        <v>396</v>
-      </c>
-      <c r="D8" s="231" t="s">
-        <v>389</v>
-      </c>
-      <c r="E8" s="231" t="s">
-        <v>397</v>
-      </c>
-      <c r="F8" s="232" t="s">
-        <v>396</v>
-      </c>
-      <c r="G8" s="233">
-        <v>42</v>
-      </c>
-      <c r="H8" s="234">
-        <v>54</v>
-      </c>
-      <c r="I8" s="234">
-        <v>36.270000000000003</v>
-      </c>
-      <c r="J8" s="235">
-        <v>59.4</v>
-      </c>
-      <c r="K8" s="236">
-        <v>40.409999999999997</v>
-      </c>
-      <c r="L8" s="237">
-        <v>35.339999999999897</v>
-      </c>
-      <c r="M8" s="237">
-        <v>25.4</v>
-      </c>
-      <c r="N8" s="238">
-        <v>39.26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="229" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="230" t="s">
-        <v>395</v>
-      </c>
-      <c r="D9" s="231" t="s">
-        <v>368</v>
-      </c>
-      <c r="E9" s="231" t="s">
-        <v>398</v>
-      </c>
-      <c r="F9" s="232" t="s">
-        <v>395</v>
-      </c>
-      <c r="G9" s="233">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="H9" s="234">
-        <v>52.8</v>
-      </c>
-      <c r="I9" s="234">
-        <v>41.67</v>
-      </c>
-      <c r="J9" s="235">
-        <v>56.3</v>
-      </c>
-      <c r="K9" s="236">
-        <v>39.340000000000003</v>
-      </c>
-      <c r="L9" s="237">
-        <v>34.599999999999902</v>
-      </c>
-      <c r="M9" s="237">
-        <v>29.659999999999901</v>
-      </c>
-      <c r="N9" s="238">
-        <v>35.74</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="229" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="230" t="s">
-        <v>399</v>
-      </c>
-      <c r="D10" s="231" t="s">
-        <v>389</v>
-      </c>
-      <c r="E10" s="231" t="s">
-        <v>394</v>
-      </c>
-      <c r="F10" s="232" t="s">
-        <v>399</v>
-      </c>
-      <c r="G10" s="233">
-        <v>39.04</v>
-      </c>
-      <c r="H10" s="234">
-        <v>53.069999999999901</v>
-      </c>
-      <c r="I10" s="234">
-        <v>40</v>
-      </c>
-      <c r="J10" s="235">
-        <v>56.26</v>
-      </c>
-      <c r="K10" s="236">
-        <v>39.06</v>
-      </c>
-      <c r="L10" s="237">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="M10" s="237">
-        <v>24.86</v>
-      </c>
-      <c r="N10" s="238">
-        <v>37.44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="229" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="230" t="s">
-        <v>381</v>
-      </c>
-      <c r="D11" s="231" t="s">
-        <v>386</v>
-      </c>
-      <c r="E11" s="231" t="s">
-        <v>381</v>
-      </c>
-      <c r="F11" s="232" t="s">
-        <v>391</v>
-      </c>
-      <c r="G11" s="233">
-        <v>46.2</v>
-      </c>
-      <c r="H11" s="234">
-        <v>41.52</v>
-      </c>
-      <c r="I11" s="234">
-        <v>63.5</v>
-      </c>
-      <c r="J11" s="235">
-        <v>56.1</v>
-      </c>
-      <c r="K11" s="236">
-        <v>46.98</v>
-      </c>
-      <c r="L11" s="237">
-        <v>25.14</v>
-      </c>
-      <c r="M11" s="237">
-        <v>45.629999999999903</v>
-      </c>
-      <c r="N11" s="238">
-        <v>29.23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="229" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="230" t="s">
-        <v>389</v>
-      </c>
-      <c r="D12" s="231" t="s">
-        <v>389</v>
-      </c>
-      <c r="E12" s="231" t="s">
-        <v>400</v>
-      </c>
-      <c r="F12" s="232" t="s">
-        <v>401</v>
-      </c>
-      <c r="G12" s="233">
-        <v>45.76</v>
-      </c>
-      <c r="H12" s="234">
-        <v>62.96</v>
-      </c>
-      <c r="I12" s="234">
-        <v>36.199999999999903</v>
-      </c>
-      <c r="J12" s="235">
-        <v>51.82</v>
-      </c>
-      <c r="K12" s="236">
-        <v>46.01</v>
-      </c>
-      <c r="L12" s="237">
-        <v>46.01</v>
-      </c>
-      <c r="M12" s="237">
-        <v>18.099999999999898</v>
-      </c>
-      <c r="N12" s="238">
-        <v>35.89</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="229" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="230" t="s">
-        <v>402</v>
-      </c>
-      <c r="D13" s="231" t="s">
-        <v>393</v>
-      </c>
-      <c r="E13" s="231" t="s">
-        <v>398</v>
-      </c>
-      <c r="F13" s="232" t="s">
-        <v>402</v>
-      </c>
-      <c r="G13" s="233">
-        <v>37.619999999999997</v>
-      </c>
-      <c r="H13" s="234">
-        <v>44.18</v>
-      </c>
-      <c r="I13" s="234">
-        <v>52.03</v>
-      </c>
-      <c r="J13" s="235">
-        <v>53.92</v>
-      </c>
-      <c r="K13" s="236">
-        <v>41.89</v>
-      </c>
-      <c r="L13" s="237">
-        <v>27.81</v>
-      </c>
-      <c r="M13" s="237">
-        <v>37.9</v>
-      </c>
-      <c r="N13" s="238">
-        <v>34.299999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="229" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="230" t="s">
-        <v>403</v>
-      </c>
-      <c r="D14" s="231" t="s">
-        <v>389</v>
-      </c>
-      <c r="E14" s="231" t="s">
-        <v>397</v>
-      </c>
-      <c r="F14" s="232" t="s">
-        <v>369</v>
-      </c>
-      <c r="G14" s="233">
-        <v>36.1</v>
-      </c>
-      <c r="H14" s="234">
-        <v>47.15</v>
-      </c>
-      <c r="I14" s="234">
-        <v>51.18</v>
-      </c>
-      <c r="J14" s="235">
-        <v>51.5</v>
-      </c>
-      <c r="K14" s="236">
-        <v>41.099999999999902</v>
-      </c>
-      <c r="L14" s="237">
-        <v>31.18</v>
-      </c>
-      <c r="M14" s="237">
-        <v>34.33</v>
-      </c>
-      <c r="N14" s="238">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="229" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="230" t="s">
-        <v>404</v>
-      </c>
-      <c r="D15" s="231" t="s">
-        <v>405</v>
-      </c>
-      <c r="E15" s="231" t="s">
+      <c r="G23" s="230">
+        <v>47.199999999999903</v>
+      </c>
+      <c r="H23" s="231">
+        <v>41.85</v>
+      </c>
+      <c r="I23" s="231">
+        <v>62.9</v>
+      </c>
+      <c r="J23" s="232">
+        <v>51.7</v>
+      </c>
+      <c r="K23" s="233">
+        <v>48.85</v>
+      </c>
+      <c r="L23" s="234">
+        <v>22.48</v>
+      </c>
+      <c r="M23" s="234">
+        <v>47.56</v>
+      </c>
+      <c r="N23" s="235">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" s="225" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="236" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="237" t="s">
+        <v>364</v>
+      </c>
+      <c r="D24" s="238" t="s">
+        <v>365</v>
+      </c>
+      <c r="E24" s="238" t="s">
+        <v>364</v>
+      </c>
+      <c r="F24" s="239" t="s">
         <v>366</v>
       </c>
-      <c r="F15" s="232" t="s">
-        <v>395</v>
-      </c>
-      <c r="G15" s="233">
-        <v>40.630000000000003</v>
-      </c>
-      <c r="H15" s="234">
-        <v>51.47</v>
-      </c>
-      <c r="I15" s="234">
-        <v>42.33</v>
-      </c>
-      <c r="J15" s="235">
-        <v>57.4</v>
-      </c>
-      <c r="K15" s="236">
-        <v>41.23</v>
-      </c>
-      <c r="L15" s="237">
-        <v>31.45</v>
-      </c>
-      <c r="M15" s="237">
-        <v>30.4</v>
-      </c>
-      <c r="N15" s="238">
-        <v>38.15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="229" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="230" t="s">
-        <v>406</v>
-      </c>
-      <c r="D16" s="231" t="s">
-        <v>389</v>
-      </c>
-      <c r="E16" s="231" t="s">
-        <v>406</v>
-      </c>
-      <c r="F16" s="232" t="s">
-        <v>369</v>
-      </c>
-      <c r="G16" s="233">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="H16" s="234">
-        <v>51.07</v>
-      </c>
-      <c r="I16" s="234">
-        <v>54.25</v>
-      </c>
-      <c r="J16" s="235">
-        <v>52.92</v>
-      </c>
-      <c r="K16" s="236">
-        <v>39.839999999999897</v>
-      </c>
-      <c r="L16" s="237">
-        <v>34.11</v>
-      </c>
-      <c r="M16" s="237">
-        <v>29.53</v>
-      </c>
-      <c r="N16" s="238">
-        <v>36.36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="229" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="230" t="s">
-        <v>392</v>
-      </c>
-      <c r="D17" s="231" t="s">
-        <v>389</v>
-      </c>
-      <c r="E17" s="231" t="s">
-        <v>407</v>
-      </c>
-      <c r="F17" s="232" t="s">
-        <v>408</v>
-      </c>
-      <c r="G17" s="233">
-        <v>41.08</v>
-      </c>
-      <c r="H17" s="234">
-        <v>57.17</v>
-      </c>
-      <c r="I17" s="234">
-        <v>36.6</v>
-      </c>
-      <c r="J17" s="235">
-        <v>56.87</v>
-      </c>
-      <c r="K17" s="236">
-        <v>41.23</v>
-      </c>
-      <c r="L17" s="237">
-        <v>41</v>
-      </c>
-      <c r="M17" s="237">
-        <v>20.059999999999999</v>
-      </c>
-      <c r="N17" s="238">
-        <v>38.94</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="229" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="230" t="s">
-        <v>391</v>
-      </c>
-      <c r="D18" s="231" t="s">
-        <v>389</v>
-      </c>
-      <c r="E18" s="231" t="s">
-        <v>397</v>
-      </c>
-      <c r="F18" s="232" t="s">
-        <v>391</v>
-      </c>
-      <c r="G18" s="233">
-        <v>49.6</v>
-      </c>
-      <c r="H18" s="234">
-        <v>50.46</v>
-      </c>
-      <c r="I18" s="234">
-        <v>30.68</v>
-      </c>
-      <c r="J18" s="235">
-        <v>66.149999999999906</v>
-      </c>
-      <c r="K18" s="236">
-        <v>45.2</v>
-      </c>
-      <c r="L18" s="237">
-        <v>33.549999999999997</v>
-      </c>
-      <c r="M18" s="237">
-        <v>21.25</v>
-      </c>
-      <c r="N18" s="238">
-        <v>45.2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="229" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="230" t="s">
-        <v>389</v>
-      </c>
-      <c r="D19" s="231" t="s">
-        <v>389</v>
-      </c>
-      <c r="E19" s="231" t="s">
-        <v>409</v>
-      </c>
-      <c r="F19" s="232" t="s">
-        <v>408</v>
-      </c>
-      <c r="G19" s="233">
-        <v>47.38</v>
-      </c>
-      <c r="H19" s="234">
-        <v>64.22</v>
-      </c>
-      <c r="I19" s="234">
-        <v>23.63</v>
-      </c>
-      <c r="J19" s="235">
-        <v>57.3</v>
-      </c>
-      <c r="K19" s="236">
-        <v>45.67</v>
-      </c>
-      <c r="L19" s="237">
-        <v>45.67</v>
-      </c>
-      <c r="M19" s="237">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="N19" s="238">
-        <v>36.770000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="229" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="230" t="s">
-        <v>410</v>
-      </c>
-      <c r="D20" s="231" t="s">
-        <v>393</v>
-      </c>
-      <c r="E20" s="231" t="s">
-        <v>366</v>
-      </c>
-      <c r="F20" s="232" t="s">
-        <v>411</v>
-      </c>
-      <c r="G20" s="233">
-        <v>43.45</v>
-      </c>
-      <c r="H20" s="234">
-        <v>59.4</v>
-      </c>
-      <c r="I20" s="234">
-        <v>27.06</v>
-      </c>
-      <c r="J20" s="235">
-        <v>56.169999999999902</v>
-      </c>
-      <c r="K20" s="236">
-        <v>43.4</v>
-      </c>
-      <c r="L20" s="237">
-        <v>43.4</v>
-      </c>
-      <c r="M20" s="237">
-        <v>15.55</v>
-      </c>
-      <c r="N20" s="238">
-        <v>41.05</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="229" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="230" t="s">
-        <v>386</v>
-      </c>
-      <c r="D21" s="231" t="s">
-        <v>386</v>
-      </c>
-      <c r="E21" s="231" t="s">
-        <v>412</v>
-      </c>
-      <c r="F21" s="232" t="s">
-        <v>408</v>
-      </c>
-      <c r="G21" s="233">
-        <v>45.05</v>
-      </c>
-      <c r="H21" s="234">
-        <v>60.199999999999903</v>
-      </c>
-      <c r="I21" s="234">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="J21" s="235">
-        <v>54.87</v>
-      </c>
-      <c r="K21" s="236">
-        <v>42.69</v>
-      </c>
-      <c r="L21" s="237">
-        <v>42.69</v>
-      </c>
-      <c r="M21" s="237">
-        <v>20.5</v>
-      </c>
-      <c r="N21" s="238">
-        <v>36.809999999999903</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="229" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="230" t="s">
-        <v>393</v>
-      </c>
-      <c r="D22" s="231" t="s">
-        <v>389</v>
-      </c>
-      <c r="E22" s="231" t="s">
-        <v>413</v>
-      </c>
-      <c r="F22" s="232" t="s">
-        <v>387</v>
-      </c>
-      <c r="G22" s="233">
-        <v>44.269999999999897</v>
-      </c>
-      <c r="H22" s="234">
-        <v>60.97</v>
-      </c>
-      <c r="I22" s="234">
-        <v>38.519999999999897</v>
-      </c>
-      <c r="J22" s="235">
-        <v>43.05</v>
-      </c>
-      <c r="K22" s="236">
-        <v>42.46</v>
-      </c>
-      <c r="L22" s="237">
-        <v>38.64</v>
-      </c>
-      <c r="M22" s="237">
-        <v>31.8</v>
-      </c>
-      <c r="N22" s="238">
-        <v>29.56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="229" t="s">
-        <v>338</v>
-      </c>
-      <c r="C23" s="230" t="s">
-        <v>354</v>
-      </c>
-      <c r="D23" s="231" t="s">
-        <v>363</v>
-      </c>
-      <c r="E23" s="231" t="s">
-        <v>354</v>
-      </c>
-      <c r="F23" s="232" t="s">
-        <v>364</v>
-      </c>
-      <c r="G23" s="233">
-        <v>47.199999999999903</v>
-      </c>
-      <c r="H23" s="234">
-        <v>41.85</v>
-      </c>
-      <c r="I23" s="234">
-        <v>62.9</v>
-      </c>
-      <c r="J23" s="235">
-        <v>51.7</v>
-      </c>
-      <c r="K23" s="236">
-        <v>48.85</v>
-      </c>
-      <c r="L23" s="237">
-        <v>22.48</v>
-      </c>
-      <c r="M23" s="237">
-        <v>47.56</v>
-      </c>
-      <c r="N23" s="238">
-        <v>29.95</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" s="228" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="239" t="s">
-        <v>339</v>
-      </c>
-      <c r="C24" s="240" t="s">
-        <v>367</v>
-      </c>
-      <c r="D24" s="241" t="s">
-        <v>368</v>
-      </c>
-      <c r="E24" s="241" t="s">
-        <v>367</v>
-      </c>
-      <c r="F24" s="242" t="s">
-        <v>369</v>
-      </c>
-      <c r="G24" s="243">
+      <c r="G24" s="240">
         <v>41.449999999999903</v>
       </c>
-      <c r="H24" s="244">
+      <c r="H24" s="241">
         <v>45.3</v>
       </c>
-      <c r="I24" s="244">
+      <c r="I24" s="241">
         <v>57.199999999999903</v>
       </c>
-      <c r="J24" s="245">
+      <c r="J24" s="242">
         <v>50.149999999999899</v>
       </c>
-      <c r="K24" s="246">
+      <c r="K24" s="243">
         <v>44.13</v>
       </c>
-      <c r="L24" s="247">
+      <c r="L24" s="244">
         <v>26.6</v>
       </c>
-      <c r="M24" s="247">
+      <c r="M24" s="244">
         <v>39.67</v>
       </c>
-      <c r="N24" s="248">
+      <c r="N24" s="245">
         <v>33.72</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F26" s="253" t="s">
-        <v>414</v>
-      </c>
-      <c r="G26" s="254">
+      <c r="F26" s="250" t="s">
+        <v>411</v>
+      </c>
+      <c r="G26" s="251">
         <f t="shared" ref="G26:N26" si="0">AVERAGE(G3:G24)</f>
         <v>42.467727272727259</v>
       </c>
-      <c r="H26" s="255">
+      <c r="H26" s="252">
         <f t="shared" si="0"/>
         <v>51.449999999999982</v>
       </c>
-      <c r="I26" s="255">
+      <c r="I26" s="252">
         <f t="shared" si="0"/>
         <v>45.898181818181797</v>
       </c>
-      <c r="J26" s="256">
+      <c r="J26" s="253">
         <f t="shared" si="0"/>
         <v>53.82227272727269</v>
       </c>
-      <c r="K26" s="257">
+      <c r="K26" s="254">
         <f t="shared" si="0"/>
         <v>42.996363636363633</v>
       </c>
-      <c r="L26" s="258">
+      <c r="L26" s="255">
         <f t="shared" si="0"/>
         <v>33.921363636363616</v>
       </c>
-      <c r="M26" s="258">
+      <c r="M26" s="255">
         <f t="shared" si="0"/>
         <v>30.648181818181794</v>
       </c>
-      <c r="N26" s="259">
+      <c r="N26" s="256">
         <f t="shared" si="0"/>
         <v>35.430454545454545</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="G28" s="251">
+      <c r="G28" s="248">
         <f>G26-K26</f>
         <v>-0.52863636363637312</v>
       </c>
-      <c r="H28" s="251">
+      <c r="H28" s="248">
         <f>H26-L26</f>
         <v>17.528636363636366</v>
       </c>
-      <c r="I28" s="251">
+      <c r="I28" s="248">
         <f>I26-M26</f>
         <v>15.250000000000004</v>
       </c>
-      <c r="J28" s="251">
+      <c r="J28" s="248">
         <f>J26-N26</f>
         <v>18.391818181818145</v>
       </c>
@@ -23102,12 +23084,12 @@
       <c r="M6" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="273">
+      <c r="R6" s="270">
         <v>40182</v>
       </c>
-      <c r="S6" s="274"/>
-      <c r="T6" s="274"/>
-      <c r="U6" s="274"/>
+      <c r="S6" s="271"/>
+      <c r="T6" s="271"/>
+      <c r="U6" s="271"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="103">
@@ -24764,10 +24746,10 @@
       </c>
     </row>
     <row r="11" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F11" s="277" t="s">
+      <c r="F11" s="274" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="277" t="s">
+      <c r="G11" s="274" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="28" t="s">
@@ -24778,8 +24760,8 @@
       </c>
     </row>
     <row r="12" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F12" s="277"/>
-      <c r="G12" s="277"/>
+      <c r="F12" s="274"/>
+      <c r="G12" s="274"/>
       <c r="H12" s="30" t="s">
         <v>94</v>
       </c>
@@ -24788,36 +24770,36 @@
       </c>
     </row>
     <row r="13" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F13" s="277"/>
-      <c r="G13" s="277" t="s">
+      <c r="F13" s="274"/>
+      <c r="G13" s="274" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="275" t="s">
+      <c r="H13" s="272" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="275"/>
+      <c r="I13" s="272"/>
     </row>
     <row r="14" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F14" s="277"/>
-      <c r="G14" s="277"/>
-      <c r="H14" s="275" t="s">
+      <c r="F14" s="274"/>
+      <c r="G14" s="274"/>
+      <c r="H14" s="272" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="275"/>
+      <c r="I14" s="272"/>
     </row>
     <row r="15" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="275" t="s">
+      <c r="F15" s="274"/>
+      <c r="G15" s="274"/>
+      <c r="H15" s="272" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="275"/>
+      <c r="I15" s="272"/>
     </row>
     <row r="16" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F16" s="276" t="s">
+      <c r="F16" s="273" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="276" t="s">
+      <c r="G16" s="273" t="s">
         <v>89</v>
       </c>
       <c r="H16" s="32" t="s">
@@ -24828,8 +24810,8 @@
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F17" s="276"/>
-      <c r="G17" s="276"/>
+      <c r="F17" s="273"/>
+      <c r="G17" s="273"/>
       <c r="H17" s="28" t="s">
         <v>99</v>
       </c>
@@ -24838,8 +24820,8 @@
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F18" s="276"/>
-      <c r="G18" s="276"/>
+      <c r="F18" s="273"/>
+      <c r="G18" s="273"/>
       <c r="H18" s="33" t="s">
         <v>100</v>
       </c>
@@ -24848,8 +24830,8 @@
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F19" s="276"/>
-      <c r="G19" s="275" t="s">
+      <c r="F19" s="273"/>
+      <c r="G19" s="272" t="s">
         <v>90</v>
       </c>
       <c r="H19" s="28" t="s">
@@ -24860,8 +24842,8 @@
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F20" s="276"/>
-      <c r="G20" s="275"/>
+      <c r="F20" s="273"/>
+      <c r="G20" s="272"/>
       <c r="H20" s="32" t="s">
         <v>102</v>
       </c>
@@ -24870,8 +24852,8 @@
       </c>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F21" s="276"/>
-      <c r="G21" s="275"/>
+      <c r="F21" s="273"/>
+      <c r="G21" s="272"/>
       <c r="H21" s="32" t="s">
         <v>103</v>
       </c>
@@ -24880,8 +24862,8 @@
       </c>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F22" s="276"/>
-      <c r="G22" s="275"/>
+      <c r="F22" s="273"/>
+      <c r="G22" s="272"/>
       <c r="H22" s="33" t="s">
         <v>104</v>
       </c>
@@ -24890,8 +24872,8 @@
       </c>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F23" s="276"/>
-      <c r="G23" s="275"/>
+      <c r="F23" s="273"/>
+      <c r="G23" s="272"/>
       <c r="H23" s="28" t="s">
         <v>105</v>
       </c>
@@ -24900,8 +24882,8 @@
       </c>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F24" s="276"/>
-      <c r="G24" s="275"/>
+      <c r="F24" s="273"/>
+      <c r="G24" s="272"/>
       <c r="H24" s="32" t="s">
         <v>106</v>
       </c>
@@ -24910,8 +24892,8 @@
       </c>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F25" s="276"/>
-      <c r="G25" s="276" t="s">
+      <c r="F25" s="273"/>
+      <c r="G25" s="273" t="s">
         <v>91</v>
       </c>
       <c r="H25" s="33" t="s">
@@ -24922,8 +24904,8 @@
       </c>
     </row>
     <row r="26" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F26" s="276"/>
-      <c r="G26" s="276"/>
+      <c r="F26" s="273"/>
+      <c r="G26" s="273"/>
       <c r="H26" s="28" t="s">
         <v>108</v>
       </c>
@@ -24932,8 +24914,8 @@
       </c>
     </row>
     <row r="27" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F27" s="276"/>
-      <c r="G27" s="276"/>
+      <c r="F27" s="273"/>
+      <c r="G27" s="273"/>
       <c r="H27" s="28" t="s">
         <v>109</v>
       </c>
